--- a/runs/dat/Mmatrix.xlsx
+++ b/runs/dat/Mmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/runs/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7B1D0D-8803-ED46-9251-6BBBE699B099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6CCC3B-A29E-554E-83D3-B2429B0D4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1000" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mmatrix" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>H</t>
   </si>
@@ -69,15 +72,12 @@
   <si>
     <t>V12</t>
   </si>
-  <si>
-    <t>Showing 1 to 12 of 41 entries, 12 total columns</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,12 +211,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -560,10 +554,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2165,19 +2158,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG115"/>
+  <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="36" workbookViewId="0">
-      <selection activeCell="T63" sqref="T63:AH104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="81" workbookViewId="0">
+      <selection activeCell="AH59" sqref="T59:AH115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="16" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1">
         <f t="shared" ref="A1:A14" si="0">A2-1</f>
         <v>1964</v>
@@ -2288,7 +2281,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2">
         <f t="shared" si="0"/>
         <v>1965</v>
@@ -2399,7 +2392,7 @@
         <v>0.26212400000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1966</v>
@@ -2510,7 +2503,7 @@
         <v>0.23202600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1967</v>
@@ -2621,7 +2614,7 @@
         <v>0.20707</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1968</v>
@@ -2732,7 +2725,7 @@
         <v>0.187698</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1969</v>
@@ -2843,7 +2836,7 @@
         <v>0.17230899999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2954,7 +2947,7 @@
         <v>0.15993599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1971</v>
@@ -3065,7 +3058,7 @@
         <v>0.15007499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1972</v>
@@ -3176,7 +3169,7 @@
         <v>0.142184</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1973</v>
@@ -3287,7 +3280,7 @@
         <v>0.13533899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1974</v>
@@ -3398,7 +3391,7 @@
         <v>0.130275</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1975</v>
@@ -3509,7 +3502,7 @@
         <v>0.126025</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1976</v>
@@ -3620,7 +3613,7 @@
         <v>0.122437</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1977</v>
@@ -3731,7 +3724,7 @@
         <v>0.11902500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>A16-1</f>
         <v>1978</v>
@@ -3827,7 +3820,7 @@
         <v>0.115469</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" ref="A16:A36" si="17">A17-1</f>
         <v>1979</v>
@@ -3923,7 +3916,7 @@
         <v>0.112133</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="17"/>
         <v>1980</v>
@@ -4019,7 +4012,7 @@
         <v>0.109795</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="17"/>
         <v>1981</v>
@@ -4115,7 +4108,7 @@
         <v>0.10785699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="17"/>
         <v>1982</v>
@@ -4211,7 +4204,7 @@
         <v>0.106313</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="17"/>
         <v>1983</v>
@@ -4307,7 +4300,7 @@
         <v>0.10530200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="17"/>
         <v>1984</v>
@@ -4403,7 +4396,7 @@
         <v>0.105087</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="17"/>
         <v>1985</v>
@@ -4499,7 +4492,7 @@
         <v>0.105075</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="17"/>
         <v>1986</v>
@@ -4595,7 +4588,7 @@
         <v>0.10641200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="17"/>
         <v>1987</v>
@@ -4691,7 +4684,7 @@
         <v>0.108095</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="17"/>
         <v>1988</v>
@@ -4787,7 +4780,7 @@
         <v>0.10979</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="17"/>
         <v>1989</v>
@@ -4883,7 +4876,7 @@
         <v>0.11077099999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="17"/>
         <v>1990</v>
@@ -4979,7 +4972,7 @@
         <v>0.111288</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="17"/>
         <v>1991</v>
@@ -5075,7 +5068,7 @@
         <v>0.11365599999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="17"/>
         <v>1992</v>
@@ -5171,7 +5164,7 @@
         <v>0.11675000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="17"/>
         <v>1993</v>
@@ -5267,7 +5260,7 @@
         <v>0.11983099999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="17"/>
         <v>1994</v>
@@ -5363,7 +5356,7 @@
         <v>0.123956</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="17"/>
         <v>1995</v>
@@ -5459,7 +5452,7 @@
         <v>0.126605</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="17"/>
         <v>1996</v>
@@ -5555,7 +5548,7 @@
         <v>0.126391</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="17"/>
         <v>1997</v>
@@ -5651,7 +5644,7 @@
         <v>0.125976</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="17"/>
         <v>1998</v>
@@ -5747,7 +5740,7 @@
         <v>0.12642600000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="17"/>
         <v>1999</v>
@@ -5843,7 +5836,7 @@
         <v>0.127606</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" ref="A37:A54" si="18">A38-1</f>
         <v>2000</v>
@@ -5939,7 +5932,7 @@
         <v>0.129055</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="18"/>
         <v>2001</v>
@@ -6035,7 +6028,7 @@
         <v>0.13030900000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="18"/>
         <v>2002</v>
@@ -6131,7 +6124,7 @@
         <v>0.131716</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="18"/>
         <v>2003</v>
@@ -6227,7 +6220,7 @@
         <v>0.13302600000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="18"/>
         <v>2004</v>
@@ -6323,7 +6316,7 @@
         <v>0.133052</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="18"/>
         <v>2005</v>
@@ -6419,7 +6412,7 @@
         <v>0.13144</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="18"/>
         <v>2006</v>
@@ -6515,7 +6508,7 @@
         <v>0.127417</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="18"/>
         <v>2007</v>
@@ -6611,7 +6604,7 @@
         <v>0.123845</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="18"/>
         <v>2008</v>
@@ -6707,7 +6700,7 @@
         <v>0.121876</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="18"/>
         <v>2009</v>
@@ -6803,7 +6796,7 @@
         <v>0.120308</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="18"/>
         <v>2010</v>
@@ -6899,7 +6892,7 @@
         <v>0.122229</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f t="shared" si="18"/>
         <v>2011</v>
@@ -6995,7 +6988,7 @@
         <v>0.12709899999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f t="shared" si="18"/>
         <v>2012</v>
@@ -7091,7 +7084,7 @@
         <v>0.13375500000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f t="shared" si="18"/>
         <v>2013</v>
@@ -7187,7 +7180,7 @@
         <v>0.142483</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f t="shared" si="18"/>
         <v>2014</v>
@@ -7283,7 +7276,7 @@
         <v>0.15892800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f t="shared" si="18"/>
         <v>2015</v>
@@ -7379,7 +7372,7 @@
         <v>0.17971100000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" si="18"/>
         <v>2016</v>
@@ -7475,7 +7468,7 @@
         <v>0.193107</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="18"/>
         <v>2017</v>
@@ -7571,7 +7564,7 @@
         <v>0.19811000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>A56-1</f>
         <v>2018</v>
@@ -7667,7 +7660,7 @@
         <v>0.19551299999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2019</v>
       </c>
@@ -7762,1965 +7755,4822 @@
         <v>0.19420899999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="R57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S59">
+        <f t="shared" ref="S59:S72" si="19">S60-1</f>
+        <v>1964</v>
+      </c>
+      <c r="T59">
+        <v>2.2360150000000001</v>
+      </c>
+      <c r="U59">
+        <v>0.41657179999999999</v>
+      </c>
+      <c r="V59">
+        <v>0.34662670000000001</v>
+      </c>
+      <c r="W59">
+        <v>0.32040691999999998</v>
+      </c>
+      <c r="X59">
+        <v>0.30524814</v>
+      </c>
+      <c r="Y59">
+        <v>0.30591763</v>
+      </c>
+      <c r="Z59">
+        <v>0.30495765499999999</v>
+      </c>
+      <c r="AA59">
+        <v>0.30512027000000003</v>
+      </c>
+      <c r="AB59">
+        <v>0.306376127</v>
+      </c>
+      <c r="AC59">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD59">
+        <v>0.30202343999999998</v>
+      </c>
+      <c r="AE59">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF59">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG59">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH59">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B60">
-        <f t="shared" ref="B60:B72" si="19">B61</f>
+        <f t="shared" ref="B60:B72" si="20">B61</f>
         <v>2.9852777000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="S60">
+        <f t="shared" si="19"/>
+        <v>1965</v>
+      </c>
+      <c r="T60">
+        <v>2.2360150000000001</v>
+      </c>
+      <c r="U60">
+        <v>0.41657179999999999</v>
+      </c>
+      <c r="V60">
+        <v>0.34662670000000001</v>
+      </c>
+      <c r="W60">
+        <v>0.32040691999999998</v>
+      </c>
+      <c r="X60">
+        <v>0.30524814</v>
+      </c>
+      <c r="Y60">
+        <v>0.30591763</v>
+      </c>
+      <c r="Z60">
+        <v>0.30495765499999999</v>
+      </c>
+      <c r="AA60">
+        <v>0.30512027000000003</v>
+      </c>
+      <c r="AB60">
+        <v>0.306376127</v>
+      </c>
+      <c r="AC60">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD60">
+        <v>0.30202343999999998</v>
+      </c>
+      <c r="AE60">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF60">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG60">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH60">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B61">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="19"/>
+        <v>1966</v>
+      </c>
+      <c r="T61">
+        <v>2.2360150000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.41657179999999999</v>
+      </c>
+      <c r="V61">
+        <v>0.34662670000000001</v>
+      </c>
+      <c r="W61">
+        <v>0.32040691999999998</v>
+      </c>
+      <c r="X61">
+        <v>0.30524814</v>
+      </c>
+      <c r="Y61">
+        <v>0.30591763</v>
+      </c>
+      <c r="Z61">
+        <v>0.30495765499999999</v>
+      </c>
+      <c r="AA61">
+        <v>0.30512027000000003</v>
+      </c>
+      <c r="AB61">
+        <v>0.306376127</v>
+      </c>
+      <c r="AC61">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD61">
+        <v>0.30202343999999998</v>
+      </c>
+      <c r="AE61">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF61">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG61">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH61">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f t="shared" si="20"/>
         <v>2.9852777000000001</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33">
-      <c r="B62">
+      <c r="S62">
         <f t="shared" si="19"/>
+        <v>1967</v>
+      </c>
+      <c r="T62">
+        <v>2.2360150000000001</v>
+      </c>
+      <c r="U62">
+        <v>0.41657179999999999</v>
+      </c>
+      <c r="V62">
+        <v>0.34662670000000001</v>
+      </c>
+      <c r="W62">
+        <v>0.32040691999999998</v>
+      </c>
+      <c r="X62">
+        <v>0.30524814</v>
+      </c>
+      <c r="Y62">
+        <v>0.30591763</v>
+      </c>
+      <c r="Z62">
+        <v>0.30495765499999999</v>
+      </c>
+      <c r="AA62">
+        <v>0.30512027000000003</v>
+      </c>
+      <c r="AB62">
+        <v>0.306376127</v>
+      </c>
+      <c r="AC62">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD62">
+        <v>0.30202343999999998</v>
+      </c>
+      <c r="AE62">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF62">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG62">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH62">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <f t="shared" si="20"/>
         <v>2.9852777000000001</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-    </row>
-    <row r="63" spans="1:33">
-      <c r="B63">
+      <c r="S63">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S63" s="2">
-        <v>1</v>
+        <v>1968</v>
       </c>
       <c r="T63">
-        <v>0.74851500000000004</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U63">
-        <v>0.33097179999999998</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V63">
-        <v>0.31362669999999998</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W63">
-        <v>0.30580689999999999</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X63">
-        <v>0.30154809999999999</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y63">
-        <v>0.30181760000000002</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z63">
-        <v>0.30105769999999998</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA63">
-        <v>0.3017203</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB63">
-        <v>0.30107610000000001</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC63">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD63">
-        <v>0.30092340000000001</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE63">
-        <v>0.30056070000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF63">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG63">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH63">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B64">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S64" s="2">
-        <v>2</v>
+        <v>1969</v>
       </c>
       <c r="T64">
-        <v>0.966113</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U64">
-        <v>0.32769379999999998</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V64">
-        <v>0.31026939999999997</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W64">
-        <v>0.30429840000000002</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X64">
-        <v>0.30104130000000001</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y64">
-        <v>0.30134060000000001</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z64">
-        <v>0.30081210000000003</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA64">
-        <v>0.30106470000000002</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB64">
-        <v>0.30101679999999997</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC64">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD64">
-        <v>0.300454</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE64">
-        <v>0.3005504</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF64">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG64">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH64">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B65">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S65" s="2">
-        <v>3</v>
+        <v>1970</v>
       </c>
       <c r="T65">
-        <v>1.17747</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U65">
-        <v>0.34127079999999999</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V65">
-        <v>0.3131002</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W65">
-        <v>0.30599009999999999</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X65">
-        <v>0.30157909999999999</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y65">
-        <v>0.30171789999999998</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z65">
-        <v>0.30123230000000001</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA65">
-        <v>0.30130200000000001</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB65">
-        <v>0.3016779</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC65">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD65">
-        <v>0.30036000000000002</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE65">
-        <v>0.30074430000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF65">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG65">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH65">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B66">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S66" s="2">
-        <v>4</v>
+        <v>1971</v>
       </c>
       <c r="T66">
-        <v>1.3779600000000001</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U66">
-        <v>0.37722309999999998</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V66">
-        <v>0.32648569999999999</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W66">
-        <v>0.31173450000000003</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X66">
-        <v>0.30342530000000001</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y66">
-        <v>0.30384109999999998</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z66">
-        <v>0.30263400000000001</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA66">
-        <v>0.30264489999999999</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB66">
-        <v>0.30335299999999998</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC66">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD66">
-        <v>0.30032579999999998</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE66">
-        <v>0.30216559999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF66">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG66">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH66">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B67">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S67" s="2">
-        <v>5</v>
+        <v>1972</v>
       </c>
       <c r="T67">
-        <v>1.3385199999999999</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U67">
-        <v>0.37931890000000001</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V67">
-        <v>0.3293856</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W67">
-        <v>0.31336219999999998</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X67">
-        <v>0.30365490000000001</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y67">
-        <v>0.30417569999999999</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z67">
-        <v>0.3039345</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA67">
-        <v>0.30320069999999999</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB67">
-        <v>0.30523479999999997</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC67">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD67">
-        <v>0.30046909999999999</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE67">
-        <v>0.3035118</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF67">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG67">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH67">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B68">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S68" s="2">
-        <v>6</v>
+        <v>1973</v>
       </c>
       <c r="T68">
-        <v>1.6980200000000001</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U68">
-        <v>0.40714299999999998</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V68">
-        <v>0.34210790000000002</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W68">
-        <v>0.32153039999999999</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X68">
-        <v>0.30500860000000002</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y68">
-        <v>0.30558180000000001</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z68">
-        <v>0.30774010000000002</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA68">
-        <v>0.30503839999999999</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB68">
-        <v>0.31120750000000003</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC68">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD68">
-        <v>0.3006258</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE68">
-        <v>0.30510979999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF68">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG68">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH68">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B69">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S69" s="2">
-        <v>7</v>
+        <v>1974</v>
       </c>
       <c r="T69">
-        <v>1.6876</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U69">
-        <v>0.3928431</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V69">
-        <v>0.33773379999999997</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W69">
-        <v>0.32023370000000001</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X69">
-        <v>0.30518210000000001</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y69">
-        <v>0.30536760000000002</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z69">
-        <v>0.30723329999999999</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA69">
-        <v>0.30501519999999999</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB69">
-        <v>0.30992599999999998</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC69">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD69">
-        <v>0.30102699999999999</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE69">
-        <v>0.30329270000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF69">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG69">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH69">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B70">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S70" s="2">
-        <v>8</v>
+        <v>1975</v>
       </c>
       <c r="T70">
-        <v>1.78478</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U70">
-        <v>0.39958759999999999</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V70">
-        <v>0.34055020000000003</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W70">
-        <v>0.32086959999999998</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X70">
-        <v>0.30607040000000002</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y70">
-        <v>0.30609130000000001</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z70">
-        <v>0.30644840000000001</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA70">
-        <v>0.30556889999999998</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB70">
-        <v>0.30797540000000001</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC70">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD70">
-        <v>0.30289250000000001</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE70">
-        <v>0.30240479999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF70">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG70">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH70">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B71">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S71" s="2">
-        <v>9</v>
+        <v>1976</v>
       </c>
       <c r="T71">
-        <v>1.98295</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U71">
-        <v>0.43043199999999998</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V71">
-        <v>0.35339110000000001</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W71">
-        <v>0.32899230000000002</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X71">
-        <v>0.30900840000000002</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y71">
-        <v>0.3085213</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z71">
-        <v>0.30712879999999998</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA71">
-        <v>0.30857580000000001</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB71">
-        <v>0.3080502</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC71">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD71">
-        <v>0.30672300000000002</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE71">
-        <v>0.30265389999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF71">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG71">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH71">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72">
+        <f t="shared" si="20"/>
+        <v>2.9852777000000001</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="19"/>
-        <v>2.9852777000000001</v>
-      </c>
-      <c r="S72" s="2">
-        <v>10</v>
+        <v>1977</v>
       </c>
       <c r="T72">
-        <v>1.86158</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U72">
-        <v>0.44195699999999999</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V72">
-        <v>0.35786089999999998</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W72">
-        <v>0.32765450000000002</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X72">
-        <v>0.30868830000000003</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y72">
-        <v>0.30835659999999998</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z72">
-        <v>0.30718440000000002</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA72">
-        <v>0.3081005</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB72">
-        <v>0.30772899999999997</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC72">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD72">
-        <v>0.30448239999999999</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE72">
-        <v>0.30463859999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF72">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG72">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH72">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73">
         <f>AVERAGE(B74:B113)</f>
         <v>2.9852777000000001</v>
       </c>
-      <c r="S73" s="2">
-        <v>11</v>
+      <c r="S73" s="1">
+        <f>S74-1</f>
+        <v>1978</v>
       </c>
       <c r="T73">
-        <v>1.81813</v>
+        <v>2.2360150000000001</v>
       </c>
       <c r="U73">
-        <v>0.47745799999999999</v>
+        <v>0.41657179999999999</v>
       </c>
       <c r="V73">
-        <v>0.37347399999999997</v>
+        <v>0.34662670000000001</v>
       </c>
       <c r="W73">
-        <v>0.3368022</v>
+        <v>0.32040691999999998</v>
       </c>
       <c r="X73">
-        <v>0.30997180000000002</v>
+        <v>0.30524814</v>
       </c>
       <c r="Y73">
-        <v>0.31021280000000001</v>
+        <v>0.30591763</v>
       </c>
       <c r="Z73">
-        <v>0.31084270000000003</v>
+        <v>0.30495765499999999</v>
       </c>
       <c r="AA73">
-        <v>0.31148310000000001</v>
+        <v>0.30512027000000003</v>
       </c>
       <c r="AB73">
-        <v>0.31345060000000002</v>
+        <v>0.306376127</v>
       </c>
       <c r="AC73">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD73">
-        <v>0.30516070000000001</v>
+        <v>0.30202343999999998</v>
       </c>
       <c r="AE73">
-        <v>0.30656749999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AF73">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AG73">
+        <v>0.30296069799999997</v>
+      </c>
+      <c r="AH73">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>2.2360150000000001</v>
       </c>
-      <c r="S74" s="2">
-        <v>12</v>
+      <c r="S74" s="1">
+        <f t="shared" ref="S74:S112" si="21">S75-1</f>
+        <v>1979</v>
       </c>
       <c r="T74">
-        <v>1.3422400000000001</v>
+        <v>2.4536129999999998</v>
       </c>
       <c r="U74">
-        <v>0.40739300000000001</v>
+        <v>0.41329379999999999</v>
       </c>
       <c r="V74">
-        <v>0.3461709</v>
+        <v>0.3432694</v>
       </c>
       <c r="W74">
-        <v>0.32377499999999998</v>
+        <v>0.31889843000000001</v>
       </c>
       <c r="X74">
-        <v>0.30704619999999999</v>
+        <v>0.304741284</v>
       </c>
       <c r="Y74">
-        <v>0.30681269999999999</v>
+        <v>0.30544059000000001</v>
       </c>
       <c r="Z74">
-        <v>0.3075637</v>
+        <v>0.30471207500000003</v>
       </c>
       <c r="AA74">
-        <v>0.30773260000000002</v>
+        <v>0.30446472200000002</v>
       </c>
       <c r="AB74">
-        <v>0.30971080000000001</v>
+        <v>0.30631684599999998</v>
       </c>
       <c r="AC74">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD74">
-        <v>0.30200559999999999</v>
+        <v>0.30155397499999997</v>
       </c>
       <c r="AE74">
-        <v>0.3036124</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31">
+        <v>0.30295040899999998</v>
+      </c>
+      <c r="AF74">
+        <v>0.30295040899999998</v>
+      </c>
+      <c r="AG74">
+        <v>0.30295040899999998</v>
+      </c>
+      <c r="AH74">
+        <v>0.30295040899999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>2.4536129999999998</v>
       </c>
-      <c r="S75" s="2">
-        <v>13</v>
+      <c r="S75" s="1">
+        <f t="shared" si="21"/>
+        <v>1980</v>
       </c>
       <c r="T75">
-        <v>1.3755200000000001</v>
+        <v>2.6649699999999998</v>
       </c>
       <c r="U75">
-        <v>0.3769536</v>
+        <v>0.42687079999999999</v>
       </c>
       <c r="V75">
-        <v>0.33330349999999997</v>
+        <v>0.34610020000000002</v>
       </c>
       <c r="W75">
-        <v>0.31567400000000001</v>
+        <v>0.32059009999999999</v>
       </c>
       <c r="X75">
-        <v>0.30460710000000002</v>
+        <v>0.30527908999999998</v>
       </c>
       <c r="Y75">
-        <v>0.30519689999999999</v>
+        <v>0.30581786</v>
       </c>
       <c r="Z75">
-        <v>0.3050813</v>
+        <v>0.30513231000000002</v>
       </c>
       <c r="AA75">
-        <v>0.30523640000000002</v>
+        <v>0.30470199999999997</v>
       </c>
       <c r="AB75">
-        <v>0.30656689999999998</v>
+        <v>0.30697786999999999</v>
       </c>
       <c r="AC75">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD75">
-        <v>0.3022804</v>
+        <v>0.30145996200000003</v>
       </c>
       <c r="AE75">
-        <v>0.30292419999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31">
+        <v>0.30314428599999999</v>
+      </c>
+      <c r="AF75">
+        <v>0.30314428599999999</v>
+      </c>
+      <c r="AG75">
+        <v>0.30314428599999999</v>
+      </c>
+      <c r="AH75">
+        <v>0.30314428599999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>2.6649699999999998</v>
       </c>
-      <c r="S76" s="2">
-        <v>14</v>
+      <c r="S76" s="1">
+        <f t="shared" si="21"/>
+        <v>1981</v>
       </c>
       <c r="T76">
-        <v>1.4137</v>
+        <v>2.8654600000000001</v>
       </c>
       <c r="U76">
-        <v>0.35401739999999998</v>
+        <v>0.46282309999999999</v>
       </c>
       <c r="V76">
-        <v>0.32131870000000001</v>
+        <v>0.35948570000000002</v>
       </c>
       <c r="W76">
-        <v>0.3116913</v>
+        <v>0.32633450000000003</v>
       </c>
       <c r="X76">
-        <v>0.30284159999999999</v>
+        <v>0.30712529999999999</v>
       </c>
       <c r="Y76">
-        <v>0.30289759999999999</v>
+        <v>0.30794106999999998</v>
       </c>
       <c r="Z76">
-        <v>0.30339070000000001</v>
+        <v>0.30653397999999998</v>
       </c>
       <c r="AA76">
-        <v>0.30338779999999999</v>
+        <v>0.30604489000000001</v>
       </c>
       <c r="AB76">
-        <v>0.30528759999999999</v>
+        <v>0.30865297000000003</v>
       </c>
       <c r="AC76">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD76">
-        <v>0.30193609999999999</v>
+        <v>0.30142583499999998</v>
       </c>
       <c r="AE76">
-        <v>0.30120940000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31">
+        <v>0.30456558</v>
+      </c>
+      <c r="AF76">
+        <v>0.30456558</v>
+      </c>
+      <c r="AG76">
+        <v>0.30456558</v>
+      </c>
+      <c r="AH76">
+        <v>0.30456558</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>2.8654600000000001</v>
       </c>
-      <c r="S77" s="2">
-        <v>15</v>
+      <c r="S77" s="1">
+        <f t="shared" si="21"/>
+        <v>1982</v>
       </c>
       <c r="T77">
-        <v>1.39527</v>
+        <v>2.8260200000000002</v>
       </c>
       <c r="U77">
-        <v>0.3412171</v>
+        <v>0.46491890000000002</v>
       </c>
       <c r="V77">
-        <v>0.31529980000000002</v>
+        <v>0.36238559999999997</v>
       </c>
       <c r="W77">
-        <v>0.30613360000000001</v>
+        <v>0.32796219999999998</v>
       </c>
       <c r="X77">
-        <v>0.30196620000000002</v>
+        <v>0.30735490999999998</v>
       </c>
       <c r="Y77">
-        <v>0.30193360000000002</v>
+        <v>0.30827570999999998</v>
       </c>
       <c r="Z77">
-        <v>0.30146790000000001</v>
+        <v>0.30783447000000003</v>
       </c>
       <c r="AA77">
-        <v>0.30162620000000001</v>
+        <v>0.30660073999999998</v>
       </c>
       <c r="AB77">
-        <v>0.3020409</v>
+        <v>0.31053481999999999</v>
       </c>
       <c r="AC77">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD77">
-        <v>0.30073939999999999</v>
+        <v>0.30156914899999998</v>
       </c>
       <c r="AE77">
-        <v>0.30058119999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31">
+        <v>0.30591180000000001</v>
+      </c>
+      <c r="AF77">
+        <v>0.30591180000000001</v>
+      </c>
+      <c r="AG77">
+        <v>0.30591180000000001</v>
+      </c>
+      <c r="AH77">
+        <v>0.30591180000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>2.8260200000000002</v>
       </c>
-      <c r="S78" s="2">
-        <v>16</v>
+      <c r="S78" s="1">
+        <f t="shared" si="21"/>
+        <v>1983</v>
       </c>
       <c r="T78">
-        <v>1.6376999999999999</v>
+        <v>3.1855199999999999</v>
       </c>
       <c r="U78">
-        <v>0.36269940000000001</v>
+        <v>0.49274299999999999</v>
       </c>
       <c r="V78">
-        <v>0.32125019999999999</v>
+        <v>0.37510789999999999</v>
       </c>
       <c r="W78">
-        <v>0.30964829999999999</v>
+        <v>0.3361304</v>
       </c>
       <c r="X78">
-        <v>0.30264869999999999</v>
+        <v>0.3087086</v>
       </c>
       <c r="Y78">
-        <v>0.30290260000000002</v>
+        <v>0.30968181</v>
       </c>
       <c r="Z78">
-        <v>0.3018187</v>
+        <v>0.31164011000000003</v>
       </c>
       <c r="AA78">
-        <v>0.302346</v>
+        <v>0.30843837000000002</v>
       </c>
       <c r="AB78">
-        <v>0.3029114</v>
+        <v>0.3165075</v>
       </c>
       <c r="AC78">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD78">
-        <v>0.30113119999999999</v>
+        <v>0.30172579500000002</v>
       </c>
       <c r="AE78">
-        <v>0.30121799999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31">
+        <v>0.30750982999999998</v>
+      </c>
+      <c r="AF78">
+        <v>0.30750982999999998</v>
+      </c>
+      <c r="AG78">
+        <v>0.30750982999999998</v>
+      </c>
+      <c r="AH78">
+        <v>0.30750982999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>3.1855199999999999</v>
       </c>
-      <c r="S79" s="2">
-        <v>17</v>
+      <c r="S79" s="1">
+        <f t="shared" si="21"/>
+        <v>1984</v>
       </c>
       <c r="T79">
-        <v>1.71282</v>
+        <v>3.1751</v>
       </c>
       <c r="U79">
-        <v>0.38336700000000001</v>
+        <v>0.47844310000000001</v>
       </c>
       <c r="V79">
-        <v>0.32888079999999997</v>
+        <v>0.3707338</v>
       </c>
       <c r="W79">
-        <v>0.31209490000000001</v>
+        <v>0.33483370000000001</v>
       </c>
       <c r="X79">
-        <v>0.30341269999999998</v>
+        <v>0.30888215000000002</v>
       </c>
       <c r="Y79">
-        <v>0.3039693</v>
+        <v>0.30946759000000001</v>
       </c>
       <c r="Z79">
-        <v>0.30296580000000001</v>
+        <v>0.31113329000000001</v>
       </c>
       <c r="AA79">
-        <v>0.302844</v>
+        <v>0.30841524999999997</v>
       </c>
       <c r="AB79">
-        <v>0.30428820000000001</v>
+        <v>0.31522594999999998</v>
       </c>
       <c r="AC79">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD79">
-        <v>0.30055409999999999</v>
+        <v>0.30212703299999999</v>
       </c>
       <c r="AE79">
-        <v>0.30265760000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31">
+        <v>0.30569274000000002</v>
+      </c>
+      <c r="AF79">
+        <v>0.30569274000000002</v>
+      </c>
+      <c r="AG79">
+        <v>0.30569274000000002</v>
+      </c>
+      <c r="AH79">
+        <v>0.30569274000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>3.1751</v>
       </c>
-      <c r="S80" s="2">
-        <v>18</v>
+      <c r="S80" s="1">
+        <f t="shared" si="21"/>
+        <v>1985</v>
       </c>
       <c r="T80">
-        <v>1.51844</v>
+        <v>3.2722799999999999</v>
       </c>
       <c r="U80">
-        <v>0.38333600000000001</v>
+        <v>0.4851876</v>
       </c>
       <c r="V80">
-        <v>0.33068779999999998</v>
+        <v>0.3735502</v>
       </c>
       <c r="W80">
-        <v>0.31311489999999997</v>
+        <v>0.33546959999999998</v>
       </c>
       <c r="X80">
-        <v>0.3032569</v>
+        <v>0.30977042999999999</v>
       </c>
       <c r="Y80">
-        <v>0.30377379999999998</v>
+        <v>0.31019133999999998</v>
       </c>
       <c r="Z80">
-        <v>0.30392639999999999</v>
+        <v>0.31034841000000002</v>
       </c>
       <c r="AA80">
-        <v>0.30296800000000002</v>
+        <v>0.30896889999999999</v>
       </c>
       <c r="AB80">
-        <v>0.30599379999999998</v>
+        <v>0.31327544000000002</v>
       </c>
       <c r="AC80">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD80">
-        <v>0.30041610000000002</v>
+        <v>0.30399249</v>
       </c>
       <c r="AE80">
-        <v>0.30316300000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31">
+        <v>0.30480481999999998</v>
+      </c>
+      <c r="AF80">
+        <v>0.30480481999999998</v>
+      </c>
+      <c r="AG80">
+        <v>0.30480481999999998</v>
+      </c>
+      <c r="AH80">
+        <v>0.30480481999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>3.2722799999999999</v>
       </c>
-      <c r="S81" s="2">
-        <v>19</v>
+      <c r="S81" s="1">
+        <f t="shared" si="21"/>
+        <v>1986</v>
       </c>
       <c r="T81">
-        <v>1.34839</v>
+        <v>3.47045</v>
       </c>
       <c r="U81">
-        <v>0.37633319999999998</v>
+        <v>0.51603200000000005</v>
       </c>
       <c r="V81">
-        <v>0.32894289999999998</v>
+        <v>0.38639109999999999</v>
       </c>
       <c r="W81">
-        <v>0.31323580000000001</v>
+        <v>0.34359230000000002</v>
       </c>
       <c r="X81">
-        <v>0.30336659999999999</v>
+        <v>0.31270843999999998</v>
       </c>
       <c r="Y81">
-        <v>0.3036759</v>
+        <v>0.31262134000000003</v>
       </c>
       <c r="Z81">
-        <v>0.30384090000000002</v>
+        <v>0.31102880999999999</v>
       </c>
       <c r="AA81">
-        <v>0.30291879999999999</v>
+        <v>0.31197578999999998</v>
       </c>
       <c r="AB81">
-        <v>0.30573810000000001</v>
+        <v>0.31335017999999998</v>
       </c>
       <c r="AC81">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD81">
-        <v>0.30032920000000002</v>
+        <v>0.30782303</v>
       </c>
       <c r="AE81">
-        <v>0.30240109999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31">
+        <v>0.30505386000000001</v>
+      </c>
+      <c r="AF81">
+        <v>0.30505386000000001</v>
+      </c>
+      <c r="AG81">
+        <v>0.30505386000000001</v>
+      </c>
+      <c r="AH81">
+        <v>0.30505386000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>3.47045</v>
       </c>
-      <c r="S82" s="2">
-        <v>20</v>
+      <c r="S82" s="1">
+        <f t="shared" si="21"/>
+        <v>1987</v>
       </c>
       <c r="T82">
-        <v>1.6313800000000001</v>
+        <v>3.3490799999999998</v>
       </c>
       <c r="U82">
-        <v>0.3956654</v>
+        <v>0.52755700000000005</v>
       </c>
       <c r="V82">
-        <v>0.33691599999999999</v>
+        <v>0.39086090000000001</v>
       </c>
       <c r="W82">
-        <v>0.31778459999999997</v>
+        <v>0.34225450000000002</v>
       </c>
       <c r="X82">
-        <v>0.30478329999999998</v>
+        <v>0.31238832999999999</v>
       </c>
       <c r="Y82">
-        <v>0.30519249999999998</v>
+        <v>0.31245665</v>
       </c>
       <c r="Z82">
-        <v>0.30533189999999999</v>
+        <v>0.31108439999999998</v>
       </c>
       <c r="AA82">
-        <v>0.3042417</v>
+        <v>0.31150050000000001</v>
       </c>
       <c r="AB82">
-        <v>0.30726609999999999</v>
+        <v>0.31302894999999997</v>
       </c>
       <c r="AC82">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD82">
-        <v>0.30082370000000003</v>
+        <v>0.30558236999999999</v>
       </c>
       <c r="AE82">
-        <v>0.30373509999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31">
+        <v>0.30703859999999999</v>
+      </c>
+      <c r="AF82">
+        <v>0.30703859999999999</v>
+      </c>
+      <c r="AG82">
+        <v>0.30703859999999999</v>
+      </c>
+      <c r="AH82">
+        <v>0.30703859999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>3.3490799999999998</v>
       </c>
-      <c r="S83" s="2">
-        <v>21</v>
+      <c r="S83" s="1">
+        <f t="shared" si="21"/>
+        <v>1988</v>
       </c>
       <c r="T83">
-        <v>1.36077</v>
+        <v>3.3056299999999998</v>
       </c>
       <c r="U83">
-        <v>0.36183140000000003</v>
+        <v>0.56305799999999995</v>
       </c>
       <c r="V83">
-        <v>0.32221610000000001</v>
+        <v>0.406474</v>
       </c>
       <c r="W83">
-        <v>0.30948730000000002</v>
+        <v>0.3514022</v>
       </c>
       <c r="X83">
-        <v>0.30215530000000002</v>
+        <v>0.31367177000000002</v>
       </c>
       <c r="Y83">
-        <v>0.30312699999999998</v>
+        <v>0.3143128</v>
       </c>
       <c r="Z83">
-        <v>0.30286489999999999</v>
+        <v>0.31474269999999999</v>
       </c>
       <c r="AA83">
-        <v>0.30200759999999999</v>
+        <v>0.31488310000000003</v>
       </c>
       <c r="AB83">
-        <v>0.30427680000000001</v>
+        <v>0.3187506</v>
       </c>
       <c r="AC83">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD83">
-        <v>0.30071059999999999</v>
+        <v>0.30626071999999999</v>
       </c>
       <c r="AE83">
-        <v>0.3019037</v>
-      </c>
-    </row>
-    <row r="84" spans="2:31">
+        <v>0.30896750000000001</v>
+      </c>
+      <c r="AF83">
+        <v>0.30896750000000001</v>
+      </c>
+      <c r="AG83">
+        <v>0.30896750000000001</v>
+      </c>
+      <c r="AH83">
+        <v>0.30896750000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>3.3056299999999998</v>
       </c>
-      <c r="S84" s="2">
-        <v>22</v>
+      <c r="S84" s="1">
+        <f t="shared" si="21"/>
+        <v>1989</v>
       </c>
       <c r="T84">
-        <v>1.4456199999999999</v>
+        <v>2.8297400000000001</v>
       </c>
       <c r="U84">
-        <v>0.37322630000000001</v>
+        <v>0.49299300000000001</v>
       </c>
       <c r="V84">
-        <v>0.32641290000000001</v>
+        <v>0.37917089999999998</v>
       </c>
       <c r="W84">
-        <v>0.31059920000000002</v>
+        <v>0.33837499999999998</v>
       </c>
       <c r="X84">
-        <v>0.30265310000000001</v>
+        <v>0.31074619999999997</v>
       </c>
       <c r="Y84">
-        <v>0.3029251</v>
+        <v>0.31091275000000002</v>
       </c>
       <c r="Z84">
-        <v>0.30279329999999999</v>
+        <v>0.31146374999999998</v>
       </c>
       <c r="AA84">
-        <v>0.3021933</v>
+        <v>0.31113256</v>
       </c>
       <c r="AB84">
-        <v>0.3040272</v>
+        <v>0.31501077</v>
       </c>
       <c r="AC84">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD84">
-        <v>0.30065199999999997</v>
+        <v>0.30310559999999998</v>
       </c>
       <c r="AE84">
-        <v>0.3011952</v>
-      </c>
-    </row>
-    <row r="85" spans="2:31">
+        <v>0.30601241000000001</v>
+      </c>
+      <c r="AF84">
+        <v>0.30601241000000001</v>
+      </c>
+      <c r="AG84">
+        <v>0.30601241000000001</v>
+      </c>
+      <c r="AH84">
+        <v>0.30601241000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>2.8297400000000001</v>
       </c>
-      <c r="S85" s="2">
-        <v>23</v>
+      <c r="S85" s="1">
+        <f t="shared" si="21"/>
+        <v>1990</v>
       </c>
       <c r="T85">
-        <v>1.3022199999999999</v>
+        <v>2.8630200000000001</v>
       </c>
       <c r="U85">
-        <v>0.3651394</v>
+        <v>0.46255360000000001</v>
       </c>
       <c r="V85">
-        <v>0.3235596</v>
+        <v>0.3663035</v>
       </c>
       <c r="W85">
-        <v>0.30917169999999999</v>
+        <v>0.33027400000000001</v>
       </c>
       <c r="X85">
-        <v>0.3026663</v>
+        <v>0.30830708000000001</v>
       </c>
       <c r="Y85">
-        <v>0.30322729999999998</v>
+        <v>0.30929686000000001</v>
       </c>
       <c r="Z85">
-        <v>0.30204130000000001</v>
+        <v>0.30898132</v>
       </c>
       <c r="AA85">
-        <v>0.30204300000000001</v>
+        <v>0.30863638999999998</v>
       </c>
       <c r="AB85">
-        <v>0.30290299999999998</v>
+        <v>0.31186684999999997</v>
       </c>
       <c r="AC85">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD85">
-        <v>0.30073240000000001</v>
+        <v>0.30338036000000002</v>
       </c>
       <c r="AE85">
-        <v>0.30130170000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:31">
+        <v>0.30532421999999998</v>
+      </c>
+      <c r="AF85">
+        <v>0.30532421999999998</v>
+      </c>
+      <c r="AG85">
+        <v>0.30532421999999998</v>
+      </c>
+      <c r="AH85">
+        <v>0.30532421999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>2.8630200000000001</v>
       </c>
-      <c r="S86" s="2">
-        <v>24</v>
+      <c r="S86" s="1">
+        <f t="shared" si="21"/>
+        <v>1991</v>
       </c>
       <c r="T86">
-        <v>1.42004</v>
+        <v>2.9011999999999998</v>
       </c>
       <c r="U86">
-        <v>0.36771239999999999</v>
+        <v>0.43961739999999999</v>
       </c>
       <c r="V86">
-        <v>0.32345119999999999</v>
+        <v>0.35431869999999999</v>
       </c>
       <c r="W86">
-        <v>0.31026140000000002</v>
+        <v>0.32629130000000001</v>
       </c>
       <c r="X86">
-        <v>0.30239070000000001</v>
+        <v>0.30654160000000003</v>
       </c>
       <c r="Y86">
-        <v>0.3027553</v>
+        <v>0.30699760999999998</v>
       </c>
       <c r="Z86">
-        <v>0.30223369999999999</v>
+        <v>0.30729066999999999</v>
       </c>
       <c r="AA86">
-        <v>0.30212749999999999</v>
+        <v>0.30678779</v>
       </c>
       <c r="AB86">
-        <v>0.30341040000000002</v>
+        <v>0.31058764</v>
       </c>
       <c r="AC86">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD86">
-        <v>0.30075679999999999</v>
+        <v>0.30303614000000001</v>
       </c>
       <c r="AE86">
-        <v>0.30187419999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="2:31">
+        <v>0.30360938999999998</v>
+      </c>
+      <c r="AF86">
+        <v>0.30360938999999998</v>
+      </c>
+      <c r="AG86">
+        <v>0.30360938999999998</v>
+      </c>
+      <c r="AH86">
+        <v>0.30360938999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>2.9011999999999998</v>
       </c>
-      <c r="S87" s="2">
-        <v>25</v>
+      <c r="S87" s="1">
+        <f t="shared" si="21"/>
+        <v>1992</v>
       </c>
       <c r="T87">
-        <v>1.5535000000000001</v>
+        <v>2.8827699999999998</v>
       </c>
       <c r="U87">
-        <v>0.3753727</v>
+        <v>0.4268171</v>
       </c>
       <c r="V87">
-        <v>0.324984</v>
+        <v>0.34829979999999999</v>
       </c>
       <c r="W87">
-        <v>0.31101289999999998</v>
+        <v>0.32073361</v>
       </c>
       <c r="X87">
-        <v>0.3025717</v>
+        <v>0.30566618000000001</v>
       </c>
       <c r="Y87">
-        <v>0.30297619999999997</v>
+        <v>0.30603358000000003</v>
       </c>
       <c r="Z87">
-        <v>0.30309960000000002</v>
+        <v>0.30536788999999998</v>
       </c>
       <c r="AA87">
-        <v>0.30219240000000003</v>
+        <v>0.30502623000000001</v>
       </c>
       <c r="AB87">
-        <v>0.30475849999999999</v>
+        <v>0.30734089999999997</v>
       </c>
       <c r="AC87">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD87">
-        <v>0.30043779999999998</v>
+        <v>0.301839419</v>
       </c>
       <c r="AE87">
-        <v>0.30214049999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="2:31">
+        <v>0.30298117299999999</v>
+      </c>
+      <c r="AF87">
+        <v>0.30298117299999999</v>
+      </c>
+      <c r="AG87">
+        <v>0.30298117299999999</v>
+      </c>
+      <c r="AH87">
+        <v>0.30298117299999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>2.8827699999999998</v>
       </c>
-      <c r="S88" s="2">
-        <v>26</v>
+      <c r="S88" s="1">
+        <f t="shared" si="21"/>
+        <v>1993</v>
       </c>
       <c r="T88">
-        <v>1.5588299999999999</v>
+        <v>3.1252</v>
       </c>
       <c r="U88">
-        <v>0.39302700000000002</v>
+        <v>0.44829940000000001</v>
       </c>
       <c r="V88">
-        <v>0.33448</v>
+        <v>0.35425020000000002</v>
       </c>
       <c r="W88">
-        <v>0.31379259999999998</v>
+        <v>0.32424826000000001</v>
       </c>
       <c r="X88">
-        <v>0.30324440000000003</v>
+        <v>0.30634875</v>
       </c>
       <c r="Y88">
-        <v>0.30343949999999997</v>
+        <v>0.30700263</v>
       </c>
       <c r="Z88">
-        <v>0.30333719999999997</v>
+        <v>0.30571865999999998</v>
       </c>
       <c r="AA88">
-        <v>0.30269800000000002</v>
+        <v>0.30574602000000001</v>
       </c>
       <c r="AB88">
-        <v>0.30508819999999998</v>
+        <v>0.30821136999999998</v>
       </c>
       <c r="AC88">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD88">
-        <v>0.30042479999999999</v>
+        <v>0.30223122000000002</v>
       </c>
       <c r="AE88">
-        <v>0.30188209999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="2:31">
+        <v>0.30361802999999998</v>
+      </c>
+      <c r="AF88">
+        <v>0.30361802999999998</v>
+      </c>
+      <c r="AG88">
+        <v>0.30361802999999998</v>
+      </c>
+      <c r="AH88">
+        <v>0.30361802999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>3.1252</v>
       </c>
-      <c r="S89" s="2">
-        <v>27</v>
+      <c r="S89" s="1">
+        <f t="shared" si="21"/>
+        <v>1994</v>
       </c>
       <c r="T89">
-        <v>1.59466</v>
+        <v>3.2003200000000001</v>
       </c>
       <c r="U89">
-        <v>0.42269000000000001</v>
+        <v>0.46896700000000002</v>
       </c>
       <c r="V89">
-        <v>0.35121740000000001</v>
+        <v>0.3618808</v>
       </c>
       <c r="W89">
-        <v>0.31963750000000002</v>
+        <v>0.32669490000000001</v>
       </c>
       <c r="X89">
-        <v>0.30574010000000001</v>
+        <v>0.30711272000000001</v>
       </c>
       <c r="Y89">
-        <v>0.30647760000000002</v>
+        <v>0.30806935000000002</v>
       </c>
       <c r="Z89">
-        <v>0.30576629999999999</v>
+        <v>0.30686577999999998</v>
       </c>
       <c r="AA89">
-        <v>0.30503520000000001</v>
+        <v>0.30624403</v>
       </c>
       <c r="AB89">
-        <v>0.30752010000000002</v>
+        <v>0.30958817999999999</v>
       </c>
       <c r="AC89">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD89">
-        <v>0.30119069999999998</v>
+        <v>0.30165414899999998</v>
       </c>
       <c r="AE89">
-        <v>0.30440610000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="2:31">
+        <v>0.30505761999999997</v>
+      </c>
+      <c r="AF89">
+        <v>0.30505761999999997</v>
+      </c>
+      <c r="AG89">
+        <v>0.30505761999999997</v>
+      </c>
+      <c r="AH89">
+        <v>0.30505761999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>3.2003200000000001</v>
       </c>
-      <c r="S90" s="2">
-        <v>28</v>
+      <c r="S90" s="1">
+        <f t="shared" si="21"/>
+        <v>1995</v>
       </c>
       <c r="T90">
-        <v>1.5186900000000001</v>
+        <v>3.0059399999999998</v>
       </c>
       <c r="U90">
-        <v>0.417541</v>
+        <v>0.46893600000000002</v>
       </c>
       <c r="V90">
-        <v>0.35133969999999998</v>
+        <v>0.36368780000000001</v>
       </c>
       <c r="W90">
-        <v>0.3201503</v>
+        <v>0.32771489999999998</v>
       </c>
       <c r="X90">
-        <v>0.30364950000000002</v>
+        <v>0.30695694000000001</v>
       </c>
       <c r="Y90">
-        <v>0.30491380000000001</v>
+        <v>0.30787382000000002</v>
       </c>
       <c r="Z90">
-        <v>0.3051818</v>
+        <v>0.30782644999999997</v>
       </c>
       <c r="AA90">
-        <v>0.30347819999999998</v>
+        <v>0.30636804000000001</v>
       </c>
       <c r="AB90">
-        <v>0.30759639999999999</v>
+        <v>0.31129382999999999</v>
       </c>
       <c r="AC90">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD90">
-        <v>0.30122569999999999</v>
+        <v>0.30151606600000003</v>
       </c>
       <c r="AE90">
-        <v>0.30370209999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="2:31">
+        <v>0.30556299999999997</v>
+      </c>
+      <c r="AF90">
+        <v>0.30556299999999997</v>
+      </c>
+      <c r="AG90">
+        <v>0.30556299999999997</v>
+      </c>
+      <c r="AH90">
+        <v>0.30556299999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>3.0059399999999998</v>
       </c>
-      <c r="S91" s="2">
-        <v>29</v>
+      <c r="S91" s="1">
+        <f t="shared" si="21"/>
+        <v>1996</v>
       </c>
       <c r="T91">
-        <v>1.2694300000000001</v>
+        <v>2.83589</v>
       </c>
       <c r="U91">
-        <v>0.3858626</v>
+        <v>0.46193319999999999</v>
       </c>
       <c r="V91">
-        <v>0.3395261</v>
+        <v>0.36194290000000001</v>
       </c>
       <c r="W91">
-        <v>0.31555870000000003</v>
+        <v>0.32783580000000001</v>
       </c>
       <c r="X91">
-        <v>0.30368040000000002</v>
+        <v>0.30706662000000001</v>
       </c>
       <c r="Y91">
-        <v>0.3039829</v>
+        <v>0.30777587000000001</v>
       </c>
       <c r="Z91">
-        <v>0.3043476</v>
+        <v>0.30774087999999999</v>
       </c>
       <c r="AA91">
-        <v>0.30338579999999998</v>
+        <v>0.30631881999999999</v>
       </c>
       <c r="AB91">
-        <v>0.30621150000000003</v>
+        <v>0.31103807</v>
       </c>
       <c r="AC91">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD91">
-        <v>0.30075269999999998</v>
+        <v>0.30142924599999998</v>
       </c>
       <c r="AE91">
-        <v>0.30191190000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:31">
+        <v>0.30480114000000003</v>
+      </c>
+      <c r="AF91">
+        <v>0.30480114000000003</v>
+      </c>
+      <c r="AG91">
+        <v>0.30480114000000003</v>
+      </c>
+      <c r="AH91">
+        <v>0.30480114000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>2.83589</v>
       </c>
-      <c r="S92" s="2">
-        <v>30</v>
+      <c r="S92" s="1">
+        <f t="shared" si="21"/>
+        <v>1997</v>
       </c>
       <c r="T92">
-        <v>1.3261799999999999</v>
+        <v>3.1188799999999999</v>
       </c>
       <c r="U92">
-        <v>0.38797670000000001</v>
+        <v>0.48126540000000001</v>
       </c>
       <c r="V92">
-        <v>0.33097539999999998</v>
+        <v>0.36991600000000002</v>
       </c>
       <c r="W92">
-        <v>0.3147549</v>
+        <v>0.33238459999999997</v>
       </c>
       <c r="X92">
-        <v>0.30329529999999999</v>
+        <v>0.30848331000000001</v>
       </c>
       <c r="Y92">
-        <v>0.30395030000000001</v>
+        <v>0.30929246999999999</v>
       </c>
       <c r="Z92">
-        <v>0.30316480000000001</v>
+        <v>0.30923192999999999</v>
       </c>
       <c r="AA92">
-        <v>0.30275370000000001</v>
+        <v>0.30764167999999997</v>
       </c>
       <c r="AB92">
-        <v>0.3040679</v>
+        <v>0.31256608000000002</v>
       </c>
       <c r="AC92">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD92">
-        <v>0.30099330000000002</v>
+        <v>0.30192365399999999</v>
       </c>
       <c r="AE92">
-        <v>0.30190899999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="2:31">
+        <v>0.30613511999999998</v>
+      </c>
+      <c r="AF92">
+        <v>0.30613511999999998</v>
+      </c>
+      <c r="AG92">
+        <v>0.30613511999999998</v>
+      </c>
+      <c r="AH92">
+        <v>0.30613511999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>3.1188799999999999</v>
       </c>
-      <c r="S93" s="2">
-        <v>31</v>
+      <c r="S93" s="1">
+        <f t="shared" si="21"/>
+        <v>1998</v>
       </c>
       <c r="T93">
-        <v>1.12409</v>
+        <v>2.8482699999999999</v>
       </c>
       <c r="U93">
-        <v>0.35942449999999998</v>
+        <v>0.44743139999999998</v>
       </c>
       <c r="V93">
-        <v>0.32314110000000001</v>
+        <v>0.35521609999999998</v>
       </c>
       <c r="W93">
-        <v>0.3094152</v>
+        <v>0.32408725999999999</v>
       </c>
       <c r="X93">
-        <v>0.3022707</v>
+        <v>0.30585527000000001</v>
       </c>
       <c r="Y93">
-        <v>0.30293920000000002</v>
+        <v>0.30722697999999998</v>
       </c>
       <c r="Z93">
-        <v>0.30211850000000001</v>
+        <v>0.30676488000000002</v>
       </c>
       <c r="AA93">
-        <v>0.30217889999999997</v>
+        <v>0.30540756000000002</v>
       </c>
       <c r="AB93">
-        <v>0.30297600000000002</v>
+        <v>0.30957684000000002</v>
       </c>
       <c r="AC93">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD93">
-        <v>0.3010777</v>
+        <v>0.30181061100000001</v>
       </c>
       <c r="AE93">
-        <v>0.30136540000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:31">
+        <v>0.30430368000000002</v>
+      </c>
+      <c r="AF93">
+        <v>0.30430368000000002</v>
+      </c>
+      <c r="AG93">
+        <v>0.30430368000000002</v>
+      </c>
+      <c r="AH93">
+        <v>0.30430368000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>2.8482699999999999</v>
       </c>
-      <c r="S94" s="2">
-        <v>32</v>
+      <c r="S94" s="1">
+        <f t="shared" si="21"/>
+        <v>1999</v>
       </c>
       <c r="T94">
-        <v>1.34324</v>
+        <v>2.9331200000000002</v>
       </c>
       <c r="U94">
-        <v>0.36983329999999998</v>
+        <v>0.45882630000000002</v>
       </c>
       <c r="V94">
-        <v>0.32392759999999998</v>
+        <v>0.35941289999999998</v>
       </c>
       <c r="W94">
-        <v>0.30990839999999997</v>
+        <v>0.32519920000000002</v>
       </c>
       <c r="X94">
-        <v>0.30237239999999999</v>
+        <v>0.30635308</v>
       </c>
       <c r="Y94">
-        <v>0.30282569999999998</v>
+        <v>0.30702508000000001</v>
       </c>
       <c r="Z94">
-        <v>0.3021491</v>
+        <v>0.30669329000000001</v>
       </c>
       <c r="AA94">
-        <v>0.30190869999999997</v>
+        <v>0.30559332</v>
       </c>
       <c r="AB94">
-        <v>0.30292409999999997</v>
+        <v>0.30932717999999998</v>
       </c>
       <c r="AC94">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD94">
-        <v>0.30054799999999998</v>
+        <v>0.30175203900000003</v>
       </c>
       <c r="AE94">
-        <v>0.30137659999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="2:31">
+        <v>0.30359523999999999</v>
+      </c>
+      <c r="AF94">
+        <v>0.30359523999999999</v>
+      </c>
+      <c r="AG94">
+        <v>0.30359523999999999</v>
+      </c>
+      <c r="AH94">
+        <v>0.30359523999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>2.9331200000000002</v>
       </c>
-      <c r="S95" s="2">
-        <v>33</v>
+      <c r="S95" s="1">
+        <f t="shared" si="21"/>
+        <v>2000</v>
       </c>
       <c r="T95">
-        <v>1.4702299999999999</v>
+        <v>2.78972</v>
       </c>
       <c r="U95">
-        <v>0.370614</v>
+        <v>0.45073940000000001</v>
       </c>
       <c r="V95">
-        <v>0.3240787</v>
+        <v>0.35655959999999998</v>
       </c>
       <c r="W95">
-        <v>0.31061699999999998</v>
+        <v>0.32377175000000002</v>
       </c>
       <c r="X95">
-        <v>0.30269190000000001</v>
+        <v>0.30636627999999999</v>
       </c>
       <c r="Y95">
-        <v>0.30311549999999998</v>
+        <v>0.30732727999999998</v>
       </c>
       <c r="Z95">
-        <v>0.30221029999999999</v>
+        <v>0.30594128999999998</v>
       </c>
       <c r="AA95">
-        <v>0.3021028</v>
+        <v>0.30544297999999998</v>
       </c>
       <c r="AB95">
-        <v>0.30322110000000002</v>
+        <v>0.30820298000000002</v>
       </c>
       <c r="AC95">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD95">
-        <v>0.30054560000000002</v>
+        <v>0.30183237800000001</v>
       </c>
       <c r="AE95">
-        <v>0.30133749999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="2:31">
+        <v>0.30370172000000001</v>
+      </c>
+      <c r="AF95">
+        <v>0.30370172000000001</v>
+      </c>
+      <c r="AG95">
+        <v>0.30370172000000001</v>
+      </c>
+      <c r="AH95">
+        <v>0.30370172000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>2.78972</v>
       </c>
-      <c r="S96" s="2">
-        <v>34</v>
+      <c r="S96" s="1">
+        <f t="shared" si="21"/>
+        <v>2001</v>
       </c>
       <c r="T96">
-        <v>1.43222</v>
+        <v>2.90754</v>
       </c>
       <c r="U96">
-        <v>0.38460070000000002</v>
+        <v>0.4533124</v>
       </c>
       <c r="V96">
-        <v>0.32849640000000002</v>
+        <v>0.35645120000000002</v>
       </c>
       <c r="W96">
-        <v>0.31086009999999997</v>
+        <v>0.32486140000000002</v>
       </c>
       <c r="X96">
-        <v>0.30270839999999999</v>
+        <v>0.30609068</v>
       </c>
       <c r="Y96">
-        <v>0.30350319999999997</v>
+        <v>0.30685528000000001</v>
       </c>
       <c r="Z96">
-        <v>0.3022435</v>
+        <v>0.30613372</v>
       </c>
       <c r="AA96">
-        <v>0.30199890000000001</v>
+        <v>0.30552751</v>
       </c>
       <c r="AB96">
-        <v>0.3031276</v>
+        <v>0.30871042999999998</v>
       </c>
       <c r="AC96">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD96">
-        <v>0.30030649999999998</v>
+        <v>0.30185677</v>
       </c>
       <c r="AE96">
-        <v>0.30197740000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="2:31">
+        <v>0.30427419</v>
+      </c>
+      <c r="AF96">
+        <v>0.30427419</v>
+      </c>
+      <c r="AG96">
+        <v>0.30427419</v>
+      </c>
+      <c r="AH96">
+        <v>0.30427419</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>2.90754</v>
       </c>
-      <c r="S97" s="2">
-        <v>35</v>
+      <c r="S97" s="1">
+        <f t="shared" si="21"/>
+        <v>2002</v>
       </c>
       <c r="T97">
-        <v>1.2495799999999999</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="U97">
-        <v>0.3671239</v>
+        <v>0.46097270000000001</v>
       </c>
       <c r="V97">
-        <v>0.32402890000000001</v>
+        <v>0.35798400000000002</v>
       </c>
       <c r="W97">
-        <v>0.30983070000000001</v>
+        <v>0.32561289999999998</v>
       </c>
       <c r="X97">
-        <v>0.30227080000000001</v>
+        <v>0.30627174000000001</v>
       </c>
       <c r="Y97">
-        <v>0.30295149999999998</v>
+        <v>0.30707623000000001</v>
       </c>
       <c r="Z97">
-        <v>0.30215439999999999</v>
+        <v>0.30699960999999998</v>
       </c>
       <c r="AA97">
-        <v>0.30164479999999999</v>
+        <v>0.30559237</v>
       </c>
       <c r="AB97">
-        <v>0.30323549999999999</v>
+        <v>0.31005849000000002</v>
       </c>
       <c r="AC97">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD97">
-        <v>0.30029499999999998</v>
+        <v>0.30153784300000003</v>
       </c>
       <c r="AE97">
-        <v>0.30170409999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="2:31">
+        <v>0.30454049999999999</v>
+      </c>
+      <c r="AF97">
+        <v>0.30454049999999999</v>
+      </c>
+      <c r="AG97">
+        <v>0.30454049999999999</v>
+      </c>
+      <c r="AH97">
+        <v>0.30454049999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>3.0409999999999999</v>
       </c>
-      <c r="S98" s="2">
-        <v>36</v>
+      <c r="S98" s="1">
+        <f t="shared" si="21"/>
+        <v>2003</v>
       </c>
       <c r="T98">
-        <v>1.5220499999999999</v>
+        <v>3.0463300000000002</v>
       </c>
       <c r="U98">
-        <v>0.36947400000000002</v>
+        <v>0.47862700000000002</v>
       </c>
       <c r="V98">
-        <v>0.32594089999999998</v>
+        <v>0.36747999999999997</v>
       </c>
       <c r="W98">
-        <v>0.31038529999999998</v>
+        <v>0.32839259999999998</v>
       </c>
       <c r="X98">
-        <v>0.3026508</v>
+        <v>0.30694442</v>
       </c>
       <c r="Y98">
-        <v>0.3031488</v>
+        <v>0.30753946999999998</v>
       </c>
       <c r="Z98">
-        <v>0.30256149999999998</v>
+        <v>0.30723718</v>
       </c>
       <c r="AA98">
-        <v>0.30214999999999997</v>
+        <v>0.30609804000000002</v>
       </c>
       <c r="AB98">
-        <v>0.30361290000000002</v>
+        <v>0.31038818000000001</v>
       </c>
       <c r="AC98">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD98">
-        <v>0.3002032</v>
+        <v>0.301524819</v>
       </c>
       <c r="AE98">
-        <v>0.30198449999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="2:31">
+        <v>0.30428213999999998</v>
+      </c>
+      <c r="AF98">
+        <v>0.30428213999999998</v>
+      </c>
+      <c r="AG98">
+        <v>0.30428213999999998</v>
+      </c>
+      <c r="AH98">
+        <v>0.30428213999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>3.0463300000000002</v>
       </c>
-      <c r="S99" s="2">
-        <v>37</v>
+      <c r="S99" s="1">
+        <f t="shared" si="21"/>
+        <v>2004</v>
       </c>
       <c r="T99">
-        <v>1.9368399999999999</v>
+        <v>3.08216</v>
       </c>
       <c r="U99">
-        <v>0.38913360000000002</v>
+        <v>0.50829000000000002</v>
       </c>
       <c r="V99">
-        <v>0.33026919999999999</v>
+        <v>0.38421739999999999</v>
       </c>
       <c r="W99">
-        <v>0.31245810000000002</v>
+        <v>0.33423750000000002</v>
       </c>
       <c r="X99">
-        <v>0.30271979999999998</v>
+        <v>0.30944009</v>
       </c>
       <c r="Y99">
-        <v>0.3034327</v>
+        <v>0.31057757000000003</v>
       </c>
       <c r="Z99">
-        <v>0.30310320000000002</v>
+        <v>0.30966629000000001</v>
       </c>
       <c r="AA99">
-        <v>0.30206060000000001</v>
+        <v>0.30843516999999998</v>
       </c>
       <c r="AB99">
-        <v>0.30457990000000001</v>
+        <v>0.31282009</v>
       </c>
       <c r="AC99">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD99">
-        <v>0.30034260000000002</v>
+        <v>0.30229067999999998</v>
       </c>
       <c r="AE99">
-        <v>0.30230849999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="2:31">
+        <v>0.30680608999999998</v>
+      </c>
+      <c r="AF99">
+        <v>0.30680608999999998</v>
+      </c>
+      <c r="AG99">
+        <v>0.30680608999999998</v>
+      </c>
+      <c r="AH99">
+        <v>0.30680608999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>3.08216</v>
       </c>
-      <c r="S100" s="2">
-        <v>38</v>
+      <c r="S100" s="1">
+        <f t="shared" si="21"/>
+        <v>2005</v>
       </c>
       <c r="T100">
-        <v>2.2335600000000002</v>
+        <v>3.0061900000000001</v>
       </c>
       <c r="U100">
-        <v>0.43046200000000001</v>
+        <v>0.50314099999999995</v>
       </c>
       <c r="V100">
-        <v>0.34480050000000001</v>
+        <v>0.38433970000000001</v>
       </c>
       <c r="W100">
-        <v>0.31939450000000003</v>
+        <v>0.3347503</v>
       </c>
       <c r="X100">
-        <v>0.30461339999999998</v>
+        <v>0.30734953999999998</v>
       </c>
       <c r="Y100">
-        <v>0.30525920000000001</v>
+        <v>0.30901377000000002</v>
       </c>
       <c r="Z100">
-        <v>0.30454429999999999</v>
+        <v>0.30908184999999999</v>
       </c>
       <c r="AA100">
-        <v>0.30372090000000002</v>
+        <v>0.30687824000000002</v>
       </c>
       <c r="AB100">
-        <v>0.30649409999999999</v>
+        <v>0.31289635999999998</v>
       </c>
       <c r="AC100">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD100">
-        <v>0.30059089999999999</v>
+        <v>0.30232575</v>
       </c>
       <c r="AE100">
-        <v>0.30272890000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="2:31">
+        <v>0.30610214000000002</v>
+      </c>
+      <c r="AF100">
+        <v>0.30610214000000002</v>
+      </c>
+      <c r="AG100">
+        <v>0.30610214000000002</v>
+      </c>
+      <c r="AH100">
+        <v>0.30610214000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>3.0061900000000001</v>
       </c>
-      <c r="S101" s="2">
-        <v>39</v>
+      <c r="S101" s="1">
+        <f t="shared" si="21"/>
+        <v>2006</v>
       </c>
       <c r="T101">
-        <v>1.72746</v>
+        <v>2.7569300000000001</v>
       </c>
       <c r="U101">
-        <v>0.420871</v>
+        <v>0.47146260000000001</v>
       </c>
       <c r="V101">
-        <v>0.34853590000000001</v>
+        <v>0.37252610000000003</v>
       </c>
       <c r="W101">
-        <v>0.31769510000000001</v>
+        <v>0.33015870000000003</v>
       </c>
       <c r="X101">
-        <v>0.30467899999999998</v>
+        <v>0.30738039</v>
       </c>
       <c r="Y101">
-        <v>0.3054846</v>
+        <v>0.30808287000000001</v>
       </c>
       <c r="Z101">
-        <v>0.30446580000000001</v>
+        <v>0.30824755999999998</v>
       </c>
       <c r="AA101">
-        <v>0.30351719999999999</v>
+        <v>0.30678581999999999</v>
       </c>
       <c r="AB101">
-        <v>0.30574449999999997</v>
+        <v>0.31151148000000001</v>
       </c>
       <c r="AC101">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD101">
-        <v>0.30059330000000001</v>
+        <v>0.30185274600000001</v>
       </c>
       <c r="AE101">
-        <v>0.30353619999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="2:31">
+        <v>0.30431188999999997</v>
+      </c>
+      <c r="AF101">
+        <v>0.30431188999999997</v>
+      </c>
+      <c r="AG101">
+        <v>0.30431188999999997</v>
+      </c>
+      <c r="AH101">
+        <v>0.30431188999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>2.7569300000000001</v>
       </c>
-      <c r="S102" s="2">
-        <v>40</v>
+      <c r="S102" s="1">
+        <f t="shared" si="21"/>
+        <v>2007</v>
       </c>
       <c r="T102">
-        <v>1.7048000000000001</v>
+        <v>2.8136800000000002</v>
       </c>
       <c r="U102">
-        <v>0.42293599999999998</v>
+        <v>0.47357670000000002</v>
       </c>
       <c r="V102">
-        <v>0.35250870000000001</v>
+        <v>0.3639754</v>
       </c>
       <c r="W102">
-        <v>0.32078430000000002</v>
+        <v>0.32935490000000001</v>
       </c>
       <c r="X102">
-        <v>0.30472650000000001</v>
+        <v>0.30699532000000002</v>
       </c>
       <c r="Y102">
-        <v>0.30580489999999999</v>
+        <v>0.30805033999999998</v>
       </c>
       <c r="Z102">
-        <v>0.30557790000000001</v>
+        <v>0.30706475999999999</v>
       </c>
       <c r="AA102">
-        <v>0.3044557</v>
+        <v>0.30615369999999997</v>
       </c>
       <c r="AB102">
-        <v>0.30793359999999997</v>
+        <v>0.30936785999999999</v>
       </c>
       <c r="AC102">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD102">
-        <v>0.30129840000000002</v>
+        <v>0.302093265</v>
       </c>
       <c r="AE102">
-        <v>0.30407050000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="2:31">
+        <v>0.30430900999999999</v>
+      </c>
+      <c r="AF102">
+        <v>0.30430900999999999</v>
+      </c>
+      <c r="AG102">
+        <v>0.30430900999999999</v>
+      </c>
+      <c r="AH102">
+        <v>0.30430900999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>2.8136800000000002</v>
       </c>
-      <c r="S103" s="2">
-        <v>41</v>
+      <c r="S103" s="1">
+        <f t="shared" si="21"/>
+        <v>2008</v>
       </c>
       <c r="T103">
-        <v>1.49203</v>
+        <v>2.6115900000000001</v>
       </c>
       <c r="U103">
-        <v>0.39223599999999997</v>
+        <v>0.44502449999999999</v>
       </c>
       <c r="V103">
-        <v>0.34072970000000002</v>
+        <v>0.35614109999999999</v>
       </c>
       <c r="W103">
-        <v>0.31689030000000001</v>
+        <v>0.32401521</v>
       </c>
       <c r="X103">
-        <v>0.30368050000000002</v>
+        <v>0.30597067999999999</v>
       </c>
       <c r="Y103">
-        <v>0.30449470000000001</v>
+        <v>0.30703918000000002</v>
       </c>
       <c r="Z103">
-        <v>0.3047396</v>
+        <v>0.30601852000000002</v>
       </c>
       <c r="AA103">
-        <v>0.3032009</v>
+        <v>0.30557888999999999</v>
       </c>
       <c r="AB103">
-        <v>0.30659449999999999</v>
+        <v>0.30827600999999999</v>
       </c>
       <c r="AC103">
         <v>0.30009999999999998</v>
       </c>
       <c r="AD103">
-        <v>0.30067700000000003</v>
+        <v>0.30217769500000002</v>
       </c>
       <c r="AE103">
-        <v>0.30284729999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="2:31">
+        <v>0.30376539000000002</v>
+      </c>
+      <c r="AF103">
+        <v>0.30376539000000002</v>
+      </c>
+      <c r="AG103">
+        <v>0.30376539000000002</v>
+      </c>
+      <c r="AH103">
+        <v>0.30376539000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>2.6115900000000001</v>
       </c>
-      <c r="S104" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:31">
+      <c r="S104" s="1">
+        <f t="shared" si="21"/>
+        <v>2009</v>
+      </c>
+      <c r="T104">
+        <v>2.83074</v>
+      </c>
+      <c r="U104">
+        <v>0.45543329999999999</v>
+      </c>
+      <c r="V104">
+        <v>0.35692760000000001</v>
+      </c>
+      <c r="W104">
+        <v>0.32450843000000001</v>
+      </c>
+      <c r="X104">
+        <v>0.30607243000000001</v>
+      </c>
+      <c r="Y104">
+        <v>0.30692573000000001</v>
+      </c>
+      <c r="Z104">
+        <v>0.30604906999999998</v>
+      </c>
+      <c r="AA104">
+        <v>0.30530865000000001</v>
+      </c>
+      <c r="AB104">
+        <v>0.30822406000000002</v>
+      </c>
+      <c r="AC104">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD104">
+        <v>0.30164797700000001</v>
+      </c>
+      <c r="AE104">
+        <v>0.30377658000000002</v>
+      </c>
+      <c r="AF104">
+        <v>0.30377658000000002</v>
+      </c>
+      <c r="AG104">
+        <v>0.30377658000000002</v>
+      </c>
+      <c r="AH104">
+        <v>0.30377658000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>2.83074</v>
       </c>
-    </row>
-    <row r="106" spans="2:31">
+      <c r="S105" s="1">
+        <f t="shared" si="21"/>
+        <v>2010</v>
+      </c>
+      <c r="T105">
+        <v>2.9577300000000002</v>
+      </c>
+      <c r="U105">
+        <v>0.45621400000000001</v>
+      </c>
+      <c r="V105">
+        <v>0.35707870000000003</v>
+      </c>
+      <c r="W105">
+        <v>0.32521699999999998</v>
+      </c>
+      <c r="X105">
+        <v>0.30639187000000001</v>
+      </c>
+      <c r="Y105">
+        <v>0.30721546999999999</v>
+      </c>
+      <c r="Z105">
+        <v>0.30611032999999999</v>
+      </c>
+      <c r="AA105">
+        <v>0.30550284999999999</v>
+      </c>
+      <c r="AB105">
+        <v>0.30852109</v>
+      </c>
+      <c r="AC105">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD105">
+        <v>0.30164560699999998</v>
+      </c>
+      <c r="AE105">
+        <v>0.30373749</v>
+      </c>
+      <c r="AF105">
+        <v>0.30373749</v>
+      </c>
+      <c r="AG105">
+        <v>0.30373749</v>
+      </c>
+      <c r="AH105">
+        <v>0.30373749</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>2.9577300000000002</v>
       </c>
-    </row>
-    <row r="107" spans="2:31">
+      <c r="S106" s="1">
+        <f t="shared" si="21"/>
+        <v>2011</v>
+      </c>
+      <c r="T106">
+        <v>2.9197199999999999</v>
+      </c>
+      <c r="U106">
+        <v>0.47020070000000003</v>
+      </c>
+      <c r="V106">
+        <v>0.3614964</v>
+      </c>
+      <c r="W106">
+        <v>0.32546009999999997</v>
+      </c>
+      <c r="X106">
+        <v>0.30640845</v>
+      </c>
+      <c r="Y106">
+        <v>0.30760320000000002</v>
+      </c>
+      <c r="Z106">
+        <v>0.30614354999999999</v>
+      </c>
+      <c r="AA106">
+        <v>0.30539891000000002</v>
+      </c>
+      <c r="AB106">
+        <v>0.30842755999999999</v>
+      </c>
+      <c r="AC106">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD106">
+        <v>0.301406542</v>
+      </c>
+      <c r="AE106">
+        <v>0.30437743</v>
+      </c>
+      <c r="AF106">
+        <v>0.30437743</v>
+      </c>
+      <c r="AG106">
+        <v>0.30437743</v>
+      </c>
+      <c r="AH106">
+        <v>0.30437743</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>2.9197199999999999</v>
       </c>
-    </row>
-    <row r="108" spans="2:31">
+      <c r="S107" s="1">
+        <f t="shared" si="21"/>
+        <v>2012</v>
+      </c>
+      <c r="T107">
+        <v>2.7370800000000002</v>
+      </c>
+      <c r="U107">
+        <v>0.45272390000000001</v>
+      </c>
+      <c r="V107">
+        <v>0.35702889999999998</v>
+      </c>
+      <c r="W107">
+        <v>0.32443073</v>
+      </c>
+      <c r="X107">
+        <v>0.30597077</v>
+      </c>
+      <c r="Y107">
+        <v>0.30705149999999998</v>
+      </c>
+      <c r="Z107">
+        <v>0.30605441</v>
+      </c>
+      <c r="AA107">
+        <v>0.30504479000000001</v>
+      </c>
+      <c r="AB107">
+        <v>0.30853553</v>
+      </c>
+      <c r="AC107">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD107">
+        <v>0.30139497599999998</v>
+      </c>
+      <c r="AE107">
+        <v>0.30410408999999999</v>
+      </c>
+      <c r="AF107">
+        <v>0.30410408999999999</v>
+      </c>
+      <c r="AG107">
+        <v>0.30410408999999999</v>
+      </c>
+      <c r="AH107">
+        <v>0.30410408999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>2.7370800000000002</v>
       </c>
-    </row>
-    <row r="109" spans="2:31">
+      <c r="S108" s="1">
+        <f t="shared" si="21"/>
+        <v>2013</v>
+      </c>
+      <c r="T108">
+        <v>3.0095499999999999</v>
+      </c>
+      <c r="U108">
+        <v>0.45507399999999998</v>
+      </c>
+      <c r="V108">
+        <v>0.35894090000000001</v>
+      </c>
+      <c r="W108">
+        <v>0.32498529999999998</v>
+      </c>
+      <c r="X108">
+        <v>0.30635076</v>
+      </c>
+      <c r="Y108">
+        <v>0.30724876000000001</v>
+      </c>
+      <c r="Z108">
+        <v>0.30646147000000001</v>
+      </c>
+      <c r="AA108">
+        <v>0.30554998999999999</v>
+      </c>
+      <c r="AB108">
+        <v>0.30891289</v>
+      </c>
+      <c r="AC108">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD108">
+        <v>0.30130321799999998</v>
+      </c>
+      <c r="AE108">
+        <v>0.30438447000000002</v>
+      </c>
+      <c r="AF108">
+        <v>0.30438447000000002</v>
+      </c>
+      <c r="AG108">
+        <v>0.30438447000000002</v>
+      </c>
+      <c r="AH108">
+        <v>0.30438447000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>3.0095499999999999</v>
       </c>
-    </row>
-    <row r="110" spans="2:31">
+      <c r="S109" s="1">
+        <f t="shared" si="21"/>
+        <v>2014</v>
+      </c>
+      <c r="T109">
+        <v>3.4243399999999999</v>
+      </c>
+      <c r="U109">
+        <v>0.47473359999999998</v>
+      </c>
+      <c r="V109">
+        <v>0.36326920000000001</v>
+      </c>
+      <c r="W109">
+        <v>0.32705810000000002</v>
+      </c>
+      <c r="X109">
+        <v>0.30641977999999997</v>
+      </c>
+      <c r="Y109">
+        <v>0.30753268</v>
+      </c>
+      <c r="Z109">
+        <v>0.30700321000000003</v>
+      </c>
+      <c r="AA109">
+        <v>0.30546056999999999</v>
+      </c>
+      <c r="AB109">
+        <v>0.30987990999999998</v>
+      </c>
+      <c r="AC109">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD109">
+        <v>0.30144261999999999</v>
+      </c>
+      <c r="AE109">
+        <v>0.30470852999999998</v>
+      </c>
+      <c r="AF109">
+        <v>0.30470852999999998</v>
+      </c>
+      <c r="AG109">
+        <v>0.30470852999999998</v>
+      </c>
+      <c r="AH109">
+        <v>0.30470852999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>3.4243399999999999</v>
       </c>
-    </row>
-    <row r="111" spans="2:31">
+      <c r="S110" s="1">
+        <f t="shared" si="21"/>
+        <v>2015</v>
+      </c>
+      <c r="T110">
+        <v>3.72106</v>
+      </c>
+      <c r="U110">
+        <v>0.51606200000000002</v>
+      </c>
+      <c r="V110">
+        <v>0.37780049999999998</v>
+      </c>
+      <c r="W110">
+        <v>0.33399450000000003</v>
+      </c>
+      <c r="X110">
+        <v>0.30831343</v>
+      </c>
+      <c r="Y110">
+        <v>0.3093592</v>
+      </c>
+      <c r="Z110">
+        <v>0.30844431999999999</v>
+      </c>
+      <c r="AA110">
+        <v>0.30712087999999998</v>
+      </c>
+      <c r="AB110">
+        <v>0.31179405999999998</v>
+      </c>
+      <c r="AC110">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD110">
+        <v>0.30169090799999998</v>
+      </c>
+      <c r="AE110">
+        <v>0.30512888999999999</v>
+      </c>
+      <c r="AF110">
+        <v>0.30512888999999999</v>
+      </c>
+      <c r="AG110">
+        <v>0.30512888999999999</v>
+      </c>
+      <c r="AH110">
+        <v>0.30512888999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>3.72106</v>
       </c>
-    </row>
-    <row r="112" spans="2:31">
+      <c r="S111" s="1">
+        <f t="shared" si="21"/>
+        <v>2016</v>
+      </c>
+      <c r="T111">
+        <v>3.21496</v>
+      </c>
+      <c r="U111">
+        <v>0.506471</v>
+      </c>
+      <c r="V111">
+        <v>0.38153589999999998</v>
+      </c>
+      <c r="W111">
+        <v>0.33229510000000001</v>
+      </c>
+      <c r="X111">
+        <v>0.30837903</v>
+      </c>
+      <c r="Y111">
+        <v>0.30958457</v>
+      </c>
+      <c r="Z111">
+        <v>0.30836581000000002</v>
+      </c>
+      <c r="AA111">
+        <v>0.3069172</v>
+      </c>
+      <c r="AB111">
+        <v>0.31104451999999999</v>
+      </c>
+      <c r="AC111">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD111">
+        <v>0.301693304</v>
+      </c>
+      <c r="AE111">
+        <v>0.30593619999999999</v>
+      </c>
+      <c r="AF111">
+        <v>0.30593619999999999</v>
+      </c>
+      <c r="AG111">
+        <v>0.30593619999999999</v>
+      </c>
+      <c r="AH111">
+        <v>0.30593619999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>3.21496</v>
       </c>
-    </row>
-    <row r="113" spans="2:2">
+      <c r="S112" s="1">
+        <f t="shared" si="21"/>
+        <v>2017</v>
+      </c>
+      <c r="T112">
+        <v>3.1922999999999999</v>
+      </c>
+      <c r="U112">
+        <v>0.50853599999999999</v>
+      </c>
+      <c r="V112">
+        <v>0.38550869999999998</v>
+      </c>
+      <c r="W112">
+        <v>0.33538430000000002</v>
+      </c>
+      <c r="X112">
+        <v>0.30842652999999998</v>
+      </c>
+      <c r="Y112">
+        <v>0.30990488999999999</v>
+      </c>
+      <c r="Z112">
+        <v>0.30947788999999998</v>
+      </c>
+      <c r="AA112">
+        <v>0.30785570000000001</v>
+      </c>
+      <c r="AB112">
+        <v>0.31323358000000001</v>
+      </c>
+      <c r="AC112">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD112">
+        <v>0.30239842</v>
+      </c>
+      <c r="AE112">
+        <v>0.30647046</v>
+      </c>
+      <c r="AF112">
+        <v>0.30647046</v>
+      </c>
+      <c r="AG112">
+        <v>0.30647046</v>
+      </c>
+      <c r="AH112">
+        <v>0.30647046</v>
+      </c>
+    </row>
+    <row r="113" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>3.1922999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="2:2">
+      <c r="S113" s="1">
+        <f>S114-1</f>
+        <v>2018</v>
+      </c>
+      <c r="T113">
+        <v>2.97953</v>
+      </c>
+      <c r="U113">
+        <v>0.47783599999999998</v>
+      </c>
+      <c r="V113">
+        <v>0.3737297</v>
+      </c>
+      <c r="W113">
+        <v>0.33149030000000002</v>
+      </c>
+      <c r="X113">
+        <v>0.30738051999999999</v>
+      </c>
+      <c r="Y113">
+        <v>0.30859471999999999</v>
+      </c>
+      <c r="Z113">
+        <v>0.30863963</v>
+      </c>
+      <c r="AA113">
+        <v>0.30660093999999999</v>
+      </c>
+      <c r="AB113">
+        <v>0.31189449000000002</v>
+      </c>
+      <c r="AC113">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD113">
+        <v>0.30177702499999998</v>
+      </c>
+      <c r="AE113">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AF113">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AG113">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AH113">
+        <v>0.30524731999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B114">
         <v>3.1922999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="2:2">
+      <c r="S114" s="1">
+        <v>2019</v>
+      </c>
+      <c r="T114">
+        <v>2.97953</v>
+      </c>
+      <c r="U114">
+        <v>0.47783599999999998</v>
+      </c>
+      <c r="V114">
+        <v>0.3737297</v>
+      </c>
+      <c r="W114">
+        <v>0.33149030000000002</v>
+      </c>
+      <c r="X114">
+        <v>0.30738051999999999</v>
+      </c>
+      <c r="Y114">
+        <v>0.30859471999999999</v>
+      </c>
+      <c r="Z114">
+        <v>0.30863963</v>
+      </c>
+      <c r="AA114">
+        <v>0.30660093999999999</v>
+      </c>
+      <c r="AB114">
+        <v>0.31189449000000002</v>
+      </c>
+      <c r="AC114">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD114">
+        <v>0.30177702499999998</v>
+      </c>
+      <c r="AE114">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AF114">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AG114">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AH114">
+        <v>0.30524731999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B115">
         <v>3.1922999999999999</v>
       </c>
+      <c r="T115">
+        <v>2.97953</v>
+      </c>
+      <c r="U115">
+        <v>0.47783599999999998</v>
+      </c>
+      <c r="V115">
+        <v>0.3737297</v>
+      </c>
+      <c r="W115">
+        <v>0.33149030000000002</v>
+      </c>
+      <c r="X115">
+        <v>0.30738051999999999</v>
+      </c>
+      <c r="Y115">
+        <v>0.30859471999999999</v>
+      </c>
+      <c r="Z115">
+        <v>0.30863963</v>
+      </c>
+      <c r="AA115">
+        <v>0.30660093999999999</v>
+      </c>
+      <c r="AB115">
+        <v>0.31189449000000002</v>
+      </c>
+      <c r="AC115">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AD115">
+        <v>0.30177702499999998</v>
+      </c>
+      <c r="AE115">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AF115">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AG115">
+        <v>0.30524731999999999</v>
+      </c>
+      <c r="AH115">
+        <v>0.30524731999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>5</v>
+      </c>
+      <c r="P116" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>7</v>
+      </c>
+      <c r="R116" t="s">
+        <v>8</v>
+      </c>
+      <c r="S116" t="s">
+        <v>9</v>
+      </c>
+      <c r="T116" t="s">
+        <v>10</v>
+      </c>
+      <c r="U116" t="s">
+        <v>11</v>
+      </c>
+      <c r="V116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2.2360150000000001</v>
+      </c>
+      <c r="M117">
+        <v>0.41657179999999999</v>
+      </c>
+      <c r="N117">
+        <v>0.34662670000000001</v>
+      </c>
+      <c r="O117">
+        <v>0.32040691999999998</v>
+      </c>
+      <c r="P117">
+        <v>0.30524814</v>
+      </c>
+      <c r="Q117">
+        <v>0.30591763</v>
+      </c>
+      <c r="R117">
+        <v>0.30495765499999999</v>
+      </c>
+      <c r="S117">
+        <v>0.30512027000000003</v>
+      </c>
+      <c r="T117">
+        <v>0.306376127</v>
+      </c>
+      <c r="U117">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V117">
+        <v>0.30202343999999998</v>
+      </c>
+      <c r="W117">
+        <v>0.30296069799999997</v>
+      </c>
+    </row>
+    <row r="118" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2.4536129999999998</v>
+      </c>
+      <c r="M118">
+        <v>0.41329379999999999</v>
+      </c>
+      <c r="N118">
+        <v>0.3432694</v>
+      </c>
+      <c r="O118">
+        <v>0.31889843000000001</v>
+      </c>
+      <c r="P118">
+        <v>0.304741284</v>
+      </c>
+      <c r="Q118">
+        <v>0.30544059000000001</v>
+      </c>
+      <c r="R118">
+        <v>0.30471207500000003</v>
+      </c>
+      <c r="S118">
+        <v>0.30446472200000002</v>
+      </c>
+      <c r="T118">
+        <v>0.30631684599999998</v>
+      </c>
+      <c r="U118">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V118">
+        <v>0.30155397499999997</v>
+      </c>
+      <c r="W118">
+        <v>0.30295040899999998</v>
+      </c>
+    </row>
+    <row r="119" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>2.6649699999999998</v>
+      </c>
+      <c r="M119">
+        <v>0.42687079999999999</v>
+      </c>
+      <c r="N119">
+        <v>0.34610020000000002</v>
+      </c>
+      <c r="O119">
+        <v>0.32059009999999999</v>
+      </c>
+      <c r="P119">
+        <v>0.30527908999999998</v>
+      </c>
+      <c r="Q119">
+        <v>0.30581786</v>
+      </c>
+      <c r="R119">
+        <v>0.30513231000000002</v>
+      </c>
+      <c r="S119">
+        <v>0.30470199999999997</v>
+      </c>
+      <c r="T119">
+        <v>0.30697786999999999</v>
+      </c>
+      <c r="U119">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V119">
+        <v>0.30145996200000003</v>
+      </c>
+      <c r="W119">
+        <v>0.30314428599999999</v>
+      </c>
+    </row>
+    <row r="120" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>2.8654600000000001</v>
+      </c>
+      <c r="M120">
+        <v>0.46282309999999999</v>
+      </c>
+      <c r="N120">
+        <v>0.35948570000000002</v>
+      </c>
+      <c r="O120">
+        <v>0.32633450000000003</v>
+      </c>
+      <c r="P120">
+        <v>0.30712529999999999</v>
+      </c>
+      <c r="Q120">
+        <v>0.30794106999999998</v>
+      </c>
+      <c r="R120">
+        <v>0.30653397999999998</v>
+      </c>
+      <c r="S120">
+        <v>0.30604489000000001</v>
+      </c>
+      <c r="T120">
+        <v>0.30865297000000003</v>
+      </c>
+      <c r="U120">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V120">
+        <v>0.30142583499999998</v>
+      </c>
+      <c r="W120">
+        <v>0.30456558</v>
+      </c>
+    </row>
+    <row r="121" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>5</v>
+      </c>
+      <c r="L121">
+        <v>2.8260200000000002</v>
+      </c>
+      <c r="M121">
+        <v>0.46491890000000002</v>
+      </c>
+      <c r="N121">
+        <v>0.36238559999999997</v>
+      </c>
+      <c r="O121">
+        <v>0.32796219999999998</v>
+      </c>
+      <c r="P121">
+        <v>0.30735490999999998</v>
+      </c>
+      <c r="Q121">
+        <v>0.30827570999999998</v>
+      </c>
+      <c r="R121">
+        <v>0.30783447000000003</v>
+      </c>
+      <c r="S121">
+        <v>0.30660073999999998</v>
+      </c>
+      <c r="T121">
+        <v>0.31053481999999999</v>
+      </c>
+      <c r="U121">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V121">
+        <v>0.30156914899999998</v>
+      </c>
+      <c r="W121">
+        <v>0.30591180000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>6</v>
+      </c>
+      <c r="L122">
+        <v>3.1855199999999999</v>
+      </c>
+      <c r="M122">
+        <v>0.49274299999999999</v>
+      </c>
+      <c r="N122">
+        <v>0.37510789999999999</v>
+      </c>
+      <c r="O122">
+        <v>0.3361304</v>
+      </c>
+      <c r="P122">
+        <v>0.3087086</v>
+      </c>
+      <c r="Q122">
+        <v>0.30968181</v>
+      </c>
+      <c r="R122">
+        <v>0.31164011000000003</v>
+      </c>
+      <c r="S122">
+        <v>0.30843837000000002</v>
+      </c>
+      <c r="T122">
+        <v>0.3165075</v>
+      </c>
+      <c r="U122">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V122">
+        <v>0.30172579500000002</v>
+      </c>
+      <c r="W122">
+        <v>0.30750982999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>7</v>
+      </c>
+      <c r="L123">
+        <v>3.1751</v>
+      </c>
+      <c r="M123">
+        <v>0.47844310000000001</v>
+      </c>
+      <c r="N123">
+        <v>0.3707338</v>
+      </c>
+      <c r="O123">
+        <v>0.33483370000000001</v>
+      </c>
+      <c r="P123">
+        <v>0.30888215000000002</v>
+      </c>
+      <c r="Q123">
+        <v>0.30946759000000001</v>
+      </c>
+      <c r="R123">
+        <v>0.31113329000000001</v>
+      </c>
+      <c r="S123">
+        <v>0.30841524999999997</v>
+      </c>
+      <c r="T123">
+        <v>0.31522594999999998</v>
+      </c>
+      <c r="U123">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V123">
+        <v>0.30212703299999999</v>
+      </c>
+      <c r="W123">
+        <v>0.30569274000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>8</v>
+      </c>
+      <c r="L124">
+        <v>3.2722799999999999</v>
+      </c>
+      <c r="M124">
+        <v>0.4851876</v>
+      </c>
+      <c r="N124">
+        <v>0.3735502</v>
+      </c>
+      <c r="O124">
+        <v>0.33546959999999998</v>
+      </c>
+      <c r="P124">
+        <v>0.30977042999999999</v>
+      </c>
+      <c r="Q124">
+        <v>0.31019133999999998</v>
+      </c>
+      <c r="R124">
+        <v>0.31034841000000002</v>
+      </c>
+      <c r="S124">
+        <v>0.30896889999999999</v>
+      </c>
+      <c r="T124">
+        <v>0.31327544000000002</v>
+      </c>
+      <c r="U124">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V124">
+        <v>0.30399249</v>
+      </c>
+      <c r="W124">
+        <v>0.30480481999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>9</v>
+      </c>
+      <c r="L125">
+        <v>3.47045</v>
+      </c>
+      <c r="M125">
+        <v>0.51603200000000005</v>
+      </c>
+      <c r="N125">
+        <v>0.38639109999999999</v>
+      </c>
+      <c r="O125">
+        <v>0.34359230000000002</v>
+      </c>
+      <c r="P125">
+        <v>0.31270843999999998</v>
+      </c>
+      <c r="Q125">
+        <v>0.31262134000000003</v>
+      </c>
+      <c r="R125">
+        <v>0.31102880999999999</v>
+      </c>
+      <c r="S125">
+        <v>0.31197578999999998</v>
+      </c>
+      <c r="T125">
+        <v>0.31335017999999998</v>
+      </c>
+      <c r="U125">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V125">
+        <v>0.30782303</v>
+      </c>
+      <c r="W125">
+        <v>0.30505386000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>10</v>
+      </c>
+      <c r="L126">
+        <v>3.3490799999999998</v>
+      </c>
+      <c r="M126">
+        <v>0.52755700000000005</v>
+      </c>
+      <c r="N126">
+        <v>0.39086090000000001</v>
+      </c>
+      <c r="O126">
+        <v>0.34225450000000002</v>
+      </c>
+      <c r="P126">
+        <v>0.31238832999999999</v>
+      </c>
+      <c r="Q126">
+        <v>0.31245665</v>
+      </c>
+      <c r="R126">
+        <v>0.31108439999999998</v>
+      </c>
+      <c r="S126">
+        <v>0.31150050000000001</v>
+      </c>
+      <c r="T126">
+        <v>0.31302894999999997</v>
+      </c>
+      <c r="U126">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V126">
+        <v>0.30558236999999999</v>
+      </c>
+      <c r="W126">
+        <v>0.30703859999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>11</v>
+      </c>
+      <c r="L127">
+        <v>3.3056299999999998</v>
+      </c>
+      <c r="M127">
+        <v>0.56305799999999995</v>
+      </c>
+      <c r="N127">
+        <v>0.406474</v>
+      </c>
+      <c r="O127">
+        <v>0.3514022</v>
+      </c>
+      <c r="P127">
+        <v>0.31367177000000002</v>
+      </c>
+      <c r="Q127">
+        <v>0.3143128</v>
+      </c>
+      <c r="R127">
+        <v>0.31474269999999999</v>
+      </c>
+      <c r="S127">
+        <v>0.31488310000000003</v>
+      </c>
+      <c r="T127">
+        <v>0.3187506</v>
+      </c>
+      <c r="U127">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V127">
+        <v>0.30626071999999999</v>
+      </c>
+      <c r="W127">
+        <v>0.30896750000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>12</v>
+      </c>
+      <c r="L128">
+        <v>2.8297400000000001</v>
+      </c>
+      <c r="M128">
+        <v>0.49299300000000001</v>
+      </c>
+      <c r="N128">
+        <v>0.37917089999999998</v>
+      </c>
+      <c r="O128">
+        <v>0.33837499999999998</v>
+      </c>
+      <c r="P128">
+        <v>0.31074619999999997</v>
+      </c>
+      <c r="Q128">
+        <v>0.31091275000000002</v>
+      </c>
+      <c r="R128">
+        <v>0.31146374999999998</v>
+      </c>
+      <c r="S128">
+        <v>0.31113256</v>
+      </c>
+      <c r="T128">
+        <v>0.31501077</v>
+      </c>
+      <c r="U128">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V128">
+        <v>0.30310559999999998</v>
+      </c>
+      <c r="W128">
+        <v>0.30601241000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <v>2.8630200000000001</v>
+      </c>
+      <c r="M129">
+        <v>0.46255360000000001</v>
+      </c>
+      <c r="N129">
+        <v>0.3663035</v>
+      </c>
+      <c r="O129">
+        <v>0.33027400000000001</v>
+      </c>
+      <c r="P129">
+        <v>0.30830708000000001</v>
+      </c>
+      <c r="Q129">
+        <v>0.30929686000000001</v>
+      </c>
+      <c r="R129">
+        <v>0.30898132</v>
+      </c>
+      <c r="S129">
+        <v>0.30863638999999998</v>
+      </c>
+      <c r="T129">
+        <v>0.31186684999999997</v>
+      </c>
+      <c r="U129">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V129">
+        <v>0.30338036000000002</v>
+      </c>
+      <c r="W129">
+        <v>0.30532421999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>14</v>
+      </c>
+      <c r="L130">
+        <v>2.9011999999999998</v>
+      </c>
+      <c r="M130">
+        <v>0.43961739999999999</v>
+      </c>
+      <c r="N130">
+        <v>0.35431869999999999</v>
+      </c>
+      <c r="O130">
+        <v>0.32629130000000001</v>
+      </c>
+      <c r="P130">
+        <v>0.30654160000000003</v>
+      </c>
+      <c r="Q130">
+        <v>0.30699760999999998</v>
+      </c>
+      <c r="R130">
+        <v>0.30729066999999999</v>
+      </c>
+      <c r="S130">
+        <v>0.30678779</v>
+      </c>
+      <c r="T130">
+        <v>0.31058764</v>
+      </c>
+      <c r="U130">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V130">
+        <v>0.30303614000000001</v>
+      </c>
+      <c r="W130">
+        <v>0.30360938999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>15</v>
+      </c>
+      <c r="L131">
+        <v>2.8827699999999998</v>
+      </c>
+      <c r="M131">
+        <v>0.4268171</v>
+      </c>
+      <c r="N131">
+        <v>0.34829979999999999</v>
+      </c>
+      <c r="O131">
+        <v>0.32073361</v>
+      </c>
+      <c r="P131">
+        <v>0.30566618000000001</v>
+      </c>
+      <c r="Q131">
+        <v>0.30603358000000003</v>
+      </c>
+      <c r="R131">
+        <v>0.30536788999999998</v>
+      </c>
+      <c r="S131">
+        <v>0.30502623000000001</v>
+      </c>
+      <c r="T131">
+        <v>0.30734089999999997</v>
+      </c>
+      <c r="U131">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V131">
+        <v>0.301839419</v>
+      </c>
+      <c r="W131">
+        <v>0.30298117299999999</v>
+      </c>
+    </row>
+    <row r="132" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>16</v>
+      </c>
+      <c r="L132">
+        <v>3.1252</v>
+      </c>
+      <c r="M132">
+        <v>0.44829940000000001</v>
+      </c>
+      <c r="N132">
+        <v>0.35425020000000002</v>
+      </c>
+      <c r="O132">
+        <v>0.32424826000000001</v>
+      </c>
+      <c r="P132">
+        <v>0.30634875</v>
+      </c>
+      <c r="Q132">
+        <v>0.30700263</v>
+      </c>
+      <c r="R132">
+        <v>0.30571865999999998</v>
+      </c>
+      <c r="S132">
+        <v>0.30574602000000001</v>
+      </c>
+      <c r="T132">
+        <v>0.30821136999999998</v>
+      </c>
+      <c r="U132">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V132">
+        <v>0.30223122000000002</v>
+      </c>
+      <c r="W132">
+        <v>0.30361802999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>17</v>
+      </c>
+      <c r="L133">
+        <v>3.2003200000000001</v>
+      </c>
+      <c r="M133">
+        <v>0.46896700000000002</v>
+      </c>
+      <c r="N133">
+        <v>0.3618808</v>
+      </c>
+      <c r="O133">
+        <v>0.32669490000000001</v>
+      </c>
+      <c r="P133">
+        <v>0.30711272000000001</v>
+      </c>
+      <c r="Q133">
+        <v>0.30806935000000002</v>
+      </c>
+      <c r="R133">
+        <v>0.30686577999999998</v>
+      </c>
+      <c r="S133">
+        <v>0.30624403</v>
+      </c>
+      <c r="T133">
+        <v>0.30958817999999999</v>
+      </c>
+      <c r="U133">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V133">
+        <v>0.30165414899999998</v>
+      </c>
+      <c r="W133">
+        <v>0.30505761999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>18</v>
+      </c>
+      <c r="L134">
+        <v>3.0059399999999998</v>
+      </c>
+      <c r="M134">
+        <v>0.46893600000000002</v>
+      </c>
+      <c r="N134">
+        <v>0.36368780000000001</v>
+      </c>
+      <c r="O134">
+        <v>0.32771489999999998</v>
+      </c>
+      <c r="P134">
+        <v>0.30695694000000001</v>
+      </c>
+      <c r="Q134">
+        <v>0.30787382000000002</v>
+      </c>
+      <c r="R134">
+        <v>0.30782644999999997</v>
+      </c>
+      <c r="S134">
+        <v>0.30636804000000001</v>
+      </c>
+      <c r="T134">
+        <v>0.31129382999999999</v>
+      </c>
+      <c r="U134">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V134">
+        <v>0.30151606600000003</v>
+      </c>
+      <c r="W134">
+        <v>0.30556299999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>19</v>
+      </c>
+      <c r="L135">
+        <v>2.83589</v>
+      </c>
+      <c r="M135">
+        <v>0.46193319999999999</v>
+      </c>
+      <c r="N135">
+        <v>0.36194290000000001</v>
+      </c>
+      <c r="O135">
+        <v>0.32783580000000001</v>
+      </c>
+      <c r="P135">
+        <v>0.30706662000000001</v>
+      </c>
+      <c r="Q135">
+        <v>0.30777587000000001</v>
+      </c>
+      <c r="R135">
+        <v>0.30774087999999999</v>
+      </c>
+      <c r="S135">
+        <v>0.30631881999999999</v>
+      </c>
+      <c r="T135">
+        <v>0.31103807</v>
+      </c>
+      <c r="U135">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V135">
+        <v>0.30142924599999998</v>
+      </c>
+      <c r="W135">
+        <v>0.30480114000000003</v>
+      </c>
+    </row>
+    <row r="136" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>20</v>
+      </c>
+      <c r="L136">
+        <v>3.1188799999999999</v>
+      </c>
+      <c r="M136">
+        <v>0.48126540000000001</v>
+      </c>
+      <c r="N136">
+        <v>0.36991600000000002</v>
+      </c>
+      <c r="O136">
+        <v>0.33238459999999997</v>
+      </c>
+      <c r="P136">
+        <v>0.30848331000000001</v>
+      </c>
+      <c r="Q136">
+        <v>0.30929246999999999</v>
+      </c>
+      <c r="R136">
+        <v>0.30923192999999999</v>
+      </c>
+      <c r="S136">
+        <v>0.30764167999999997</v>
+      </c>
+      <c r="T136">
+        <v>0.31256608000000002</v>
+      </c>
+      <c r="U136">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V136">
+        <v>0.30192365399999999</v>
+      </c>
+      <c r="W136">
+        <v>0.30613511999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>21</v>
+      </c>
+      <c r="L137">
+        <v>2.8482699999999999</v>
+      </c>
+      <c r="M137">
+        <v>0.44743139999999998</v>
+      </c>
+      <c r="N137">
+        <v>0.35521609999999998</v>
+      </c>
+      <c r="O137">
+        <v>0.32408725999999999</v>
+      </c>
+      <c r="P137">
+        <v>0.30585527000000001</v>
+      </c>
+      <c r="Q137">
+        <v>0.30722697999999998</v>
+      </c>
+      <c r="R137">
+        <v>0.30676488000000002</v>
+      </c>
+      <c r="S137">
+        <v>0.30540756000000002</v>
+      </c>
+      <c r="T137">
+        <v>0.30957684000000002</v>
+      </c>
+      <c r="U137">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V137">
+        <v>0.30181061100000001</v>
+      </c>
+      <c r="W137">
+        <v>0.30430368000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>22</v>
+      </c>
+      <c r="L138">
+        <v>2.9331200000000002</v>
+      </c>
+      <c r="M138">
+        <v>0.45882630000000002</v>
+      </c>
+      <c r="N138">
+        <v>0.35941289999999998</v>
+      </c>
+      <c r="O138">
+        <v>0.32519920000000002</v>
+      </c>
+      <c r="P138">
+        <v>0.30635308</v>
+      </c>
+      <c r="Q138">
+        <v>0.30702508000000001</v>
+      </c>
+      <c r="R138">
+        <v>0.30669329000000001</v>
+      </c>
+      <c r="S138">
+        <v>0.30559332</v>
+      </c>
+      <c r="T138">
+        <v>0.30932717999999998</v>
+      </c>
+      <c r="U138">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V138">
+        <v>0.30175203900000003</v>
+      </c>
+      <c r="W138">
+        <v>0.30359523999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>23</v>
+      </c>
+      <c r="L139">
+        <v>2.78972</v>
+      </c>
+      <c r="M139">
+        <v>0.45073940000000001</v>
+      </c>
+      <c r="N139">
+        <v>0.35655959999999998</v>
+      </c>
+      <c r="O139">
+        <v>0.32377175000000002</v>
+      </c>
+      <c r="P139">
+        <v>0.30636627999999999</v>
+      </c>
+      <c r="Q139">
+        <v>0.30732727999999998</v>
+      </c>
+      <c r="R139">
+        <v>0.30594128999999998</v>
+      </c>
+      <c r="S139">
+        <v>0.30544297999999998</v>
+      </c>
+      <c r="T139">
+        <v>0.30820298000000002</v>
+      </c>
+      <c r="U139">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V139">
+        <v>0.30183237800000001</v>
+      </c>
+      <c r="W139">
+        <v>0.30370172000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>24</v>
+      </c>
+      <c r="L140">
+        <v>2.90754</v>
+      </c>
+      <c r="M140">
+        <v>0.4533124</v>
+      </c>
+      <c r="N140">
+        <v>0.35645120000000002</v>
+      </c>
+      <c r="O140">
+        <v>0.32486140000000002</v>
+      </c>
+      <c r="P140">
+        <v>0.30609068</v>
+      </c>
+      <c r="Q140">
+        <v>0.30685528000000001</v>
+      </c>
+      <c r="R140">
+        <v>0.30613372</v>
+      </c>
+      <c r="S140">
+        <v>0.30552751</v>
+      </c>
+      <c r="T140">
+        <v>0.30871042999999998</v>
+      </c>
+      <c r="U140">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V140">
+        <v>0.30185677</v>
+      </c>
+      <c r="W140">
+        <v>0.30427419</v>
+      </c>
+    </row>
+    <row r="141" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>25</v>
+      </c>
+      <c r="L141">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="M141">
+        <v>0.46097270000000001</v>
+      </c>
+      <c r="N141">
+        <v>0.35798400000000002</v>
+      </c>
+      <c r="O141">
+        <v>0.32561289999999998</v>
+      </c>
+      <c r="P141">
+        <v>0.30627174000000001</v>
+      </c>
+      <c r="Q141">
+        <v>0.30707623000000001</v>
+      </c>
+      <c r="R141">
+        <v>0.30699960999999998</v>
+      </c>
+      <c r="S141">
+        <v>0.30559237</v>
+      </c>
+      <c r="T141">
+        <v>0.31005849000000002</v>
+      </c>
+      <c r="U141">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V141">
+        <v>0.30153784300000003</v>
+      </c>
+      <c r="W141">
+        <v>0.30454049999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>26</v>
+      </c>
+      <c r="L142">
+        <v>3.0463300000000002</v>
+      </c>
+      <c r="M142">
+        <v>0.47862700000000002</v>
+      </c>
+      <c r="N142">
+        <v>0.36747999999999997</v>
+      </c>
+      <c r="O142">
+        <v>0.32839259999999998</v>
+      </c>
+      <c r="P142">
+        <v>0.30694442</v>
+      </c>
+      <c r="Q142">
+        <v>0.30753946999999998</v>
+      </c>
+      <c r="R142">
+        <v>0.30723718</v>
+      </c>
+      <c r="S142">
+        <v>0.30609804000000002</v>
+      </c>
+      <c r="T142">
+        <v>0.31038818000000001</v>
+      </c>
+      <c r="U142">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V142">
+        <v>0.301524819</v>
+      </c>
+      <c r="W142">
+        <v>0.30428213999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>27</v>
+      </c>
+      <c r="L143">
+        <v>3.08216</v>
+      </c>
+      <c r="M143">
+        <v>0.50829000000000002</v>
+      </c>
+      <c r="N143">
+        <v>0.38421739999999999</v>
+      </c>
+      <c r="O143">
+        <v>0.33423750000000002</v>
+      </c>
+      <c r="P143">
+        <v>0.30944009</v>
+      </c>
+      <c r="Q143">
+        <v>0.31057757000000003</v>
+      </c>
+      <c r="R143">
+        <v>0.30966629000000001</v>
+      </c>
+      <c r="S143">
+        <v>0.30843516999999998</v>
+      </c>
+      <c r="T143">
+        <v>0.31282009</v>
+      </c>
+      <c r="U143">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V143">
+        <v>0.30229067999999998</v>
+      </c>
+      <c r="W143">
+        <v>0.30680608999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>28</v>
+      </c>
+      <c r="L144">
+        <v>3.0061900000000001</v>
+      </c>
+      <c r="M144">
+        <v>0.50314099999999995</v>
+      </c>
+      <c r="N144">
+        <v>0.38433970000000001</v>
+      </c>
+      <c r="O144">
+        <v>0.3347503</v>
+      </c>
+      <c r="P144">
+        <v>0.30734953999999998</v>
+      </c>
+      <c r="Q144">
+        <v>0.30901377000000002</v>
+      </c>
+      <c r="R144">
+        <v>0.30908184999999999</v>
+      </c>
+      <c r="S144">
+        <v>0.30687824000000002</v>
+      </c>
+      <c r="T144">
+        <v>0.31289635999999998</v>
+      </c>
+      <c r="U144">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V144">
+        <v>0.30232575</v>
+      </c>
+      <c r="W144">
+        <v>0.30610214000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>29</v>
+      </c>
+      <c r="L145">
+        <v>2.7569300000000001</v>
+      </c>
+      <c r="M145">
+        <v>0.47146260000000001</v>
+      </c>
+      <c r="N145">
+        <v>0.37252610000000003</v>
+      </c>
+      <c r="O145">
+        <v>0.33015870000000003</v>
+      </c>
+      <c r="P145">
+        <v>0.30738039</v>
+      </c>
+      <c r="Q145">
+        <v>0.30808287000000001</v>
+      </c>
+      <c r="R145">
+        <v>0.30824755999999998</v>
+      </c>
+      <c r="S145">
+        <v>0.30678581999999999</v>
+      </c>
+      <c r="T145">
+        <v>0.31151148000000001</v>
+      </c>
+      <c r="U145">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V145">
+        <v>0.30185274600000001</v>
+      </c>
+      <c r="W145">
+        <v>0.30431188999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>30</v>
+      </c>
+      <c r="L146">
+        <v>2.8136800000000002</v>
+      </c>
+      <c r="M146">
+        <v>0.47357670000000002</v>
+      </c>
+      <c r="N146">
+        <v>0.3639754</v>
+      </c>
+      <c r="O146">
+        <v>0.32935490000000001</v>
+      </c>
+      <c r="P146">
+        <v>0.30699532000000002</v>
+      </c>
+      <c r="Q146">
+        <v>0.30805033999999998</v>
+      </c>
+      <c r="R146">
+        <v>0.30706475999999999</v>
+      </c>
+      <c r="S146">
+        <v>0.30615369999999997</v>
+      </c>
+      <c r="T146">
+        <v>0.30936785999999999</v>
+      </c>
+      <c r="U146">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V146">
+        <v>0.302093265</v>
+      </c>
+      <c r="W146">
+        <v>0.30430900999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>31</v>
+      </c>
+      <c r="L147">
+        <v>2.6115900000000001</v>
+      </c>
+      <c r="M147">
+        <v>0.44502449999999999</v>
+      </c>
+      <c r="N147">
+        <v>0.35614109999999999</v>
+      </c>
+      <c r="O147">
+        <v>0.32401521</v>
+      </c>
+      <c r="P147">
+        <v>0.30597067999999999</v>
+      </c>
+      <c r="Q147">
+        <v>0.30703918000000002</v>
+      </c>
+      <c r="R147">
+        <v>0.30601852000000002</v>
+      </c>
+      <c r="S147">
+        <v>0.30557888999999999</v>
+      </c>
+      <c r="T147">
+        <v>0.30827600999999999</v>
+      </c>
+      <c r="U147">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V147">
+        <v>0.30217769500000002</v>
+      </c>
+      <c r="W147">
+        <v>0.30376539000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>32</v>
+      </c>
+      <c r="L148">
+        <v>2.83074</v>
+      </c>
+      <c r="M148">
+        <v>0.45543329999999999</v>
+      </c>
+      <c r="N148">
+        <v>0.35692760000000001</v>
+      </c>
+      <c r="O148">
+        <v>0.32450843000000001</v>
+      </c>
+      <c r="P148">
+        <v>0.30607243000000001</v>
+      </c>
+      <c r="Q148">
+        <v>0.30692573000000001</v>
+      </c>
+      <c r="R148">
+        <v>0.30604906999999998</v>
+      </c>
+      <c r="S148">
+        <v>0.30530865000000001</v>
+      </c>
+      <c r="T148">
+        <v>0.30822406000000002</v>
+      </c>
+      <c r="U148">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V148">
+        <v>0.30164797700000001</v>
+      </c>
+      <c r="W148">
+        <v>0.30377658000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>33</v>
+      </c>
+      <c r="L149">
+        <v>2.9577300000000002</v>
+      </c>
+      <c r="M149">
+        <v>0.45621400000000001</v>
+      </c>
+      <c r="N149">
+        <v>0.35707870000000003</v>
+      </c>
+      <c r="O149">
+        <v>0.32521699999999998</v>
+      </c>
+      <c r="P149">
+        <v>0.30639187000000001</v>
+      </c>
+      <c r="Q149">
+        <v>0.30721546999999999</v>
+      </c>
+      <c r="R149">
+        <v>0.30611032999999999</v>
+      </c>
+      <c r="S149">
+        <v>0.30550284999999999</v>
+      </c>
+      <c r="T149">
+        <v>0.30852109</v>
+      </c>
+      <c r="U149">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V149">
+        <v>0.30164560699999998</v>
+      </c>
+      <c r="W149">
+        <v>0.30373749</v>
+      </c>
+    </row>
+    <row r="150" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>34</v>
+      </c>
+      <c r="L150">
+        <v>2.9197199999999999</v>
+      </c>
+      <c r="M150">
+        <v>0.47020070000000003</v>
+      </c>
+      <c r="N150">
+        <v>0.3614964</v>
+      </c>
+      <c r="O150">
+        <v>0.32546009999999997</v>
+      </c>
+      <c r="P150">
+        <v>0.30640845</v>
+      </c>
+      <c r="Q150">
+        <v>0.30760320000000002</v>
+      </c>
+      <c r="R150">
+        <v>0.30614354999999999</v>
+      </c>
+      <c r="S150">
+        <v>0.30539891000000002</v>
+      </c>
+      <c r="T150">
+        <v>0.30842755999999999</v>
+      </c>
+      <c r="U150">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V150">
+        <v>0.301406542</v>
+      </c>
+      <c r="W150">
+        <v>0.30437743</v>
+      </c>
+    </row>
+    <row r="151" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>35</v>
+      </c>
+      <c r="L151">
+        <v>2.7370800000000002</v>
+      </c>
+      <c r="M151">
+        <v>0.45272390000000001</v>
+      </c>
+      <c r="N151">
+        <v>0.35702889999999998</v>
+      </c>
+      <c r="O151">
+        <v>0.32443073</v>
+      </c>
+      <c r="P151">
+        <v>0.30597077</v>
+      </c>
+      <c r="Q151">
+        <v>0.30705149999999998</v>
+      </c>
+      <c r="R151">
+        <v>0.30605441</v>
+      </c>
+      <c r="S151">
+        <v>0.30504479000000001</v>
+      </c>
+      <c r="T151">
+        <v>0.30853553</v>
+      </c>
+      <c r="U151">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V151">
+        <v>0.30139497599999998</v>
+      </c>
+      <c r="W151">
+        <v>0.30410408999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>36</v>
+      </c>
+      <c r="L152">
+        <v>3.0095499999999999</v>
+      </c>
+      <c r="M152">
+        <v>0.45507399999999998</v>
+      </c>
+      <c r="N152">
+        <v>0.35894090000000001</v>
+      </c>
+      <c r="O152">
+        <v>0.32498529999999998</v>
+      </c>
+      <c r="P152">
+        <v>0.30635076</v>
+      </c>
+      <c r="Q152">
+        <v>0.30724876000000001</v>
+      </c>
+      <c r="R152">
+        <v>0.30646147000000001</v>
+      </c>
+      <c r="S152">
+        <v>0.30554998999999999</v>
+      </c>
+      <c r="T152">
+        <v>0.30891289</v>
+      </c>
+      <c r="U152">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V152">
+        <v>0.30130321799999998</v>
+      </c>
+      <c r="W152">
+        <v>0.30438447000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>37</v>
+      </c>
+      <c r="L153">
+        <v>3.4243399999999999</v>
+      </c>
+      <c r="M153">
+        <v>0.47473359999999998</v>
+      </c>
+      <c r="N153">
+        <v>0.36326920000000001</v>
+      </c>
+      <c r="O153">
+        <v>0.32705810000000002</v>
+      </c>
+      <c r="P153">
+        <v>0.30641977999999997</v>
+      </c>
+      <c r="Q153">
+        <v>0.30753268</v>
+      </c>
+      <c r="R153">
+        <v>0.30700321000000003</v>
+      </c>
+      <c r="S153">
+        <v>0.30546056999999999</v>
+      </c>
+      <c r="T153">
+        <v>0.30987990999999998</v>
+      </c>
+      <c r="U153">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V153">
+        <v>0.30144261999999999</v>
+      </c>
+      <c r="W153">
+        <v>0.30470852999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>38</v>
+      </c>
+      <c r="L154">
+        <v>3.72106</v>
+      </c>
+      <c r="M154">
+        <v>0.51606200000000002</v>
+      </c>
+      <c r="N154">
+        <v>0.37780049999999998</v>
+      </c>
+      <c r="O154">
+        <v>0.33399450000000003</v>
+      </c>
+      <c r="P154">
+        <v>0.30831343</v>
+      </c>
+      <c r="Q154">
+        <v>0.3093592</v>
+      </c>
+      <c r="R154">
+        <v>0.30844431999999999</v>
+      </c>
+      <c r="S154">
+        <v>0.30712087999999998</v>
+      </c>
+      <c r="T154">
+        <v>0.31179405999999998</v>
+      </c>
+      <c r="U154">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V154">
+        <v>0.30169090799999998</v>
+      </c>
+      <c r="W154">
+        <v>0.30512888999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>39</v>
+      </c>
+      <c r="L155">
+        <v>3.21496</v>
+      </c>
+      <c r="M155">
+        <v>0.506471</v>
+      </c>
+      <c r="N155">
+        <v>0.38153589999999998</v>
+      </c>
+      <c r="O155">
+        <v>0.33229510000000001</v>
+      </c>
+      <c r="P155">
+        <v>0.30837903</v>
+      </c>
+      <c r="Q155">
+        <v>0.30958457</v>
+      </c>
+      <c r="R155">
+        <v>0.30836581000000002</v>
+      </c>
+      <c r="S155">
+        <v>0.3069172</v>
+      </c>
+      <c r="T155">
+        <v>0.31104451999999999</v>
+      </c>
+      <c r="U155">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V155">
+        <v>0.301693304</v>
+      </c>
+      <c r="W155">
+        <v>0.30593619999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>40</v>
+      </c>
+      <c r="L156">
+        <v>3.1922999999999999</v>
+      </c>
+      <c r="M156">
+        <v>0.50853599999999999</v>
+      </c>
+      <c r="N156">
+        <v>0.38550869999999998</v>
+      </c>
+      <c r="O156">
+        <v>0.33538430000000002</v>
+      </c>
+      <c r="P156">
+        <v>0.30842652999999998</v>
+      </c>
+      <c r="Q156">
+        <v>0.30990488999999999</v>
+      </c>
+      <c r="R156">
+        <v>0.30947788999999998</v>
+      </c>
+      <c r="S156">
+        <v>0.30785570000000001</v>
+      </c>
+      <c r="T156">
+        <v>0.31323358000000001</v>
+      </c>
+      <c r="U156">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V156">
+        <v>0.30239842</v>
+      </c>
+      <c r="W156">
+        <v>0.30647046</v>
+      </c>
+    </row>
+    <row r="157" spans="11:23" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>41</v>
+      </c>
+      <c r="L157">
+        <v>2.97953</v>
+      </c>
+      <c r="M157">
+        <v>0.47783599999999998</v>
+      </c>
+      <c r="N157">
+        <v>0.3737297</v>
+      </c>
+      <c r="O157">
+        <v>0.33149030000000002</v>
+      </c>
+      <c r="P157">
+        <v>0.30738051999999999</v>
+      </c>
+      <c r="Q157">
+        <v>0.30859471999999999</v>
+      </c>
+      <c r="R157">
+        <v>0.30863963</v>
+      </c>
+      <c r="S157">
+        <v>0.30660093999999999</v>
+      </c>
+      <c r="T157">
+        <v>0.31189449000000002</v>
+      </c>
+      <c r="U157">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="V157">
+        <v>0.30177702499999998</v>
+      </c>
+      <c r="W157">
+        <v>0.30524731999999999</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15:B56 B58">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9730,7 +12580,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C56">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9740,7 +12590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D56">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9750,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E56">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9760,7 +12610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F56">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9770,7 +12620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G56">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9780,7 +12630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H56">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9790,7 +12640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I56">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9800,7 +12650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J56">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9810,7 +12660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K56">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9820,7 +12670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L56">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9830,7 +12680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:M56">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9840,7 +12690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N56">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9850,7 +12700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O56">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9860,7 +12710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:P56">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9870,7 +12720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74:B115">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9879,7 +12729,207 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T63:T104">
+  <conditionalFormatting sqref="T73:T115">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U115">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V73:V115">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W73:W115">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X73:X115">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y73:Y115">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z73:Z115">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA73:AA115">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB73:AB115">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC73:AC115">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD73:AD115">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE73:AE115">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T59:T72">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U59:U72">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V59:V72">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:W72">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X59:X72">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y59:Y72">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z59:Z72">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA59:AA72">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB59:AB72">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -9889,8 +12939,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U63:U104">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AC59:AC72">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9899,8 +12949,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V63:V104">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AD59:AD72">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9909,8 +12959,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W63:W104">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="AE59:AE72">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9919,57 +12969,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X63:X104">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y63:Y104">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z63:Z104">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA63:AA104">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB63:AB104">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC63:AC104">
+  <conditionalFormatting sqref="AF73:AF115">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9979,7 +12979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD63:AD104">
+  <conditionalFormatting sqref="AF59:AF72">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9989,7 +12989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE63:AE104">
+  <conditionalFormatting sqref="AG73:AG115">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9999,7 +12999,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF63:AF104">
+  <conditionalFormatting sqref="AG59:AG72">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10009,7 +13009,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG63:AG104">
+  <conditionalFormatting sqref="AH73:AH115">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10019,7 +13019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH63:AH104">
+  <conditionalFormatting sqref="AH59:AH72">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10040,9 +13040,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.9</v>
       </c>
@@ -10089,7 +13089,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.9</v>
       </c>
@@ -10136,7 +13136,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.9</v>
       </c>
@@ -10183,7 +13183,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.9</v>
       </c>
@@ -10230,7 +13230,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.9</v>
       </c>
@@ -10277,7 +13277,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.9</v>
       </c>
@@ -10324,7 +13324,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -10371,7 +13371,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.9</v>
       </c>
@@ -10418,7 +13418,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.9</v>
       </c>
@@ -10465,7 +13465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -10512,7 +13512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
@@ -10559,7 +13559,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -10606,7 +13606,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.9</v>
       </c>
@@ -10653,7 +13653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.9</v>
       </c>
@@ -10700,7 +13700,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.9</v>
       </c>
@@ -10747,7 +13747,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.9</v>
       </c>
@@ -10794,7 +13794,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.9</v>
       </c>
@@ -10841,7 +13841,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.9</v>
       </c>
@@ -10888,7 +13888,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.9</v>
       </c>
@@ -10935,7 +13935,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.9</v>
       </c>
@@ -10982,7 +13982,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.9</v>
       </c>
@@ -11029,7 +14029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.9</v>
       </c>
@@ -11076,7 +14076,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.9</v>
       </c>
@@ -11123,7 +14123,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.9</v>
       </c>
@@ -11170,7 +14170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -11217,7 +14217,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.9</v>
       </c>
@@ -11264,7 +14264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.9</v>
       </c>
@@ -11311,7 +14311,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.9</v>
       </c>
@@ -11358,7 +14358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.9</v>
       </c>
@@ -11405,7 +14405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.9</v>
       </c>
@@ -11452,7 +14452,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -11499,7 +14499,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.9</v>
       </c>
@@ -11546,7 +14546,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.9</v>
       </c>
@@ -11593,7 +14593,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.9</v>
       </c>
@@ -11640,7 +14640,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.9</v>
       </c>
@@ -11687,7 +14687,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.9</v>
       </c>
@@ -11734,7 +14734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.9</v>
       </c>
@@ -11781,7 +14781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.9</v>
       </c>
@@ -11828,7 +14828,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -11875,7 +14875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.9</v>
       </c>
@@ -11922,7 +14922,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.9</v>
       </c>
@@ -11969,7 +14969,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.9</v>
       </c>
@@ -12016,7 +15016,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.9</v>
       </c>
@@ -12063,7 +15063,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.9</v>
       </c>
@@ -12110,7 +15110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.9</v>
       </c>
@@ -12157,7 +15157,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.9</v>
       </c>
@@ -12204,7 +15204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.9</v>
       </c>
@@ -12251,7 +15251,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.9</v>
       </c>
@@ -12298,7 +15298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.9</v>
       </c>
@@ -12345,7 +15345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.9</v>
       </c>
@@ -12392,7 +15392,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.9</v>
       </c>
@@ -12439,7 +15439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.9</v>
       </c>
@@ -12486,7 +15486,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.9</v>
       </c>
@@ -12533,7 +15533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.9</v>
       </c>
@@ -12580,7 +15580,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.9</v>
       </c>
@@ -12627,7 +15627,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.9</v>
       </c>

--- a/runs/dat/Mmatrix.xlsx
+++ b/runs/dat/Mmatrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/_mymods/ebswp/runs/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6CCC3B-A29E-554E-83D3-B2429B0D4674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D0FCA2-4D06-824F-B28E-CD9F89220FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1000" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Mmatrix" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -77,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +209,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,9 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2160,14 +2171,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AH59" sqref="T59:AH115"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H71" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T72" sqref="T72:AH72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="16" width="6.6640625" customWidth="1"/>
+    <col min="20" max="34" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -7767,52 +7779,52 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="S59">
-        <f t="shared" ref="S59:S72" si="19">S60-1</f>
-        <v>1964</v>
-      </c>
-      <c r="T59">
+        <f t="shared" ref="S59:S71" si="19">S60-1</f>
+        <v>-13</v>
+      </c>
+      <c r="T59" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG59">
+      <c r="AG59" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH59">
+      <c r="AH59" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -7823,51 +7835,51 @@
       </c>
       <c r="S60">
         <f t="shared" si="19"/>
-        <v>1965</v>
-      </c>
-      <c r="T60">
+        <v>-12</v>
+      </c>
+      <c r="T60" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD60">
+      <c r="AD60" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE60">
+      <c r="AE60" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF60">
+      <c r="AF60" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG60">
+      <c r="AG60" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH60">
+      <c r="AH60" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -7878,51 +7890,51 @@
       </c>
       <c r="S61">
         <f t="shared" si="19"/>
-        <v>1966</v>
-      </c>
-      <c r="T61">
+        <v>-11</v>
+      </c>
+      <c r="T61" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE61">
+      <c r="AE61" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF61">
+      <c r="AF61" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG61">
+      <c r="AG61" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH61">
+      <c r="AH61" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -7933,51 +7945,51 @@
       </c>
       <c r="S62">
         <f t="shared" si="19"/>
-        <v>1967</v>
-      </c>
-      <c r="T62">
+        <v>-10</v>
+      </c>
+      <c r="T62" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V62">
+      <c r="V62" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W62">
+      <c r="W62" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X62">
+      <c r="X62" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z62">
+      <c r="Z62" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB62">
+      <c r="AB62" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE62">
+      <c r="AE62" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF62">
+      <c r="AF62" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG62">
+      <c r="AG62" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH62">
+      <c r="AH62" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -7988,51 +8000,51 @@
       </c>
       <c r="S63">
         <f t="shared" si="19"/>
-        <v>1968</v>
-      </c>
-      <c r="T63">
+        <v>-9</v>
+      </c>
+      <c r="T63" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V63">
+      <c r="V63" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W63">
+      <c r="W63" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X63">
+      <c r="X63" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z63">
+      <c r="Z63" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA63">
+      <c r="AA63" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB63">
+      <c r="AB63" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC63">
+      <c r="AC63" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD63">
+      <c r="AD63" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE63">
+      <c r="AE63" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF63">
+      <c r="AF63" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG63">
+      <c r="AG63" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH63">
+      <c r="AH63" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8043,51 +8055,51 @@
       </c>
       <c r="S64">
         <f t="shared" si="19"/>
-        <v>1969</v>
-      </c>
-      <c r="T64">
+        <v>-8</v>
+      </c>
+      <c r="T64" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V64">
+      <c r="V64" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W64">
+      <c r="W64" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X64">
+      <c r="X64" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z64">
+      <c r="Z64" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB64">
+      <c r="AB64" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC64">
+      <c r="AC64" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD64">
+      <c r="AD64" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE64">
+      <c r="AE64" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF64">
+      <c r="AF64" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG64">
+      <c r="AG64" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH64">
+      <c r="AH64" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8098,51 +8110,51 @@
       </c>
       <c r="S65">
         <f t="shared" si="19"/>
-        <v>1970</v>
-      </c>
-      <c r="T65">
+        <v>-7</v>
+      </c>
+      <c r="T65" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z65">
+      <c r="Z65" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB65">
+      <c r="AB65" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD65">
+      <c r="AD65" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE65">
+      <c r="AE65" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF65">
+      <c r="AF65" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG65">
+      <c r="AG65" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH65">
+      <c r="AH65" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8153,51 +8165,51 @@
       </c>
       <c r="S66">
         <f t="shared" si="19"/>
-        <v>1971</v>
-      </c>
-      <c r="T66">
+        <v>-6</v>
+      </c>
+      <c r="T66" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE66">
+      <c r="AE66" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF66">
+      <c r="AF66" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG66">
+      <c r="AG66" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH66">
+      <c r="AH66" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8208,51 +8220,51 @@
       </c>
       <c r="S67">
         <f t="shared" si="19"/>
-        <v>1972</v>
-      </c>
-      <c r="T67">
+        <v>-5</v>
+      </c>
+      <c r="T67" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD67">
+      <c r="AD67" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE67">
+      <c r="AE67" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF67">
+      <c r="AF67" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG67">
+      <c r="AG67" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH67">
+      <c r="AH67" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8263,51 +8275,51 @@
       </c>
       <c r="S68">
         <f t="shared" si="19"/>
-        <v>1973</v>
-      </c>
-      <c r="T68">
+        <v>-4</v>
+      </c>
+      <c r="T68" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB68">
+      <c r="AB68" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE68">
+      <c r="AE68" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF68">
+      <c r="AF68" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG68">
+      <c r="AG68" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH68">
+      <c r="AH68" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8318,51 +8330,51 @@
       </c>
       <c r="S69">
         <f t="shared" si="19"/>
-        <v>1974</v>
-      </c>
-      <c r="T69">
+        <v>-3</v>
+      </c>
+      <c r="T69" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z69">
+      <c r="Z69" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB69">
+      <c r="AB69" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC69">
+      <c r="AC69" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD69">
+      <c r="AD69" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE69">
+      <c r="AE69" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF69">
+      <c r="AF69" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG69">
+      <c r="AG69" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH69">
+      <c r="AH69" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8373,51 +8385,51 @@
       </c>
       <c r="S70">
         <f t="shared" si="19"/>
-        <v>1975</v>
-      </c>
-      <c r="T70">
+        <v>-2</v>
+      </c>
+      <c r="T70" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W70">
+      <c r="W70" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X70">
+      <c r="X70" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y70">
+      <c r="Y70" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z70">
+      <c r="Z70" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB70">
+      <c r="AB70" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC70">
+      <c r="AC70" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD70">
+      <c r="AD70" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE70">
+      <c r="AE70" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF70">
+      <c r="AF70" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG70">
+      <c r="AG70" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH70">
+      <c r="AH70" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8428,107 +8440,117 @@
       </c>
       <c r="S71">
         <f t="shared" si="19"/>
-        <v>1976</v>
-      </c>
-      <c r="T71">
+        <v>-1</v>
+      </c>
+      <c r="T71" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V71">
+      <c r="V71" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W71">
+      <c r="W71" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X71">
+      <c r="X71" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z71">
+      <c r="Z71" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB71">
+      <c r="AB71" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD71">
+      <c r="AD71" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE71">
+      <c r="AE71" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF71">
+      <c r="AF71" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG71">
+      <c r="AG71" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH71">
+      <c r="AH71" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" ht="21" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="20"/>
         <v>2.9852777000000001</v>
       </c>
-      <c r="S72">
-        <f t="shared" si="19"/>
-        <v>1977</v>
-      </c>
-      <c r="T72">
-        <v>2.2360150000000001</v>
-      </c>
-      <c r="U72">
-        <v>0.41657179999999999</v>
-      </c>
-      <c r="V72">
-        <v>0.34662670000000001</v>
-      </c>
-      <c r="W72">
-        <v>0.32040691999999998</v>
-      </c>
-      <c r="X72">
-        <v>0.30524814</v>
-      </c>
-      <c r="Y72">
-        <v>0.30591763</v>
-      </c>
-      <c r="Z72">
-        <v>0.30495765499999999</v>
-      </c>
-      <c r="AA72">
-        <v>0.30512027000000003</v>
-      </c>
-      <c r="AB72">
-        <v>0.306376127</v>
-      </c>
-      <c r="AC72">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="AD72">
-        <v>0.30202343999999998</v>
-      </c>
-      <c r="AE72">
-        <v>0.30296069799999997</v>
-      </c>
-      <c r="AF72">
-        <v>0.30296069799999997</v>
-      </c>
-      <c r="AG72">
-        <v>0.30296069799999997</v>
-      </c>
-      <c r="AH72">
-        <v>0.30296069799999997</v>
+      <c r="T72" s="3">
+        <v>1</v>
+      </c>
+      <c r="U72" s="3">
+        <f>T72+1</f>
+        <v>2</v>
+      </c>
+      <c r="V72" s="3">
+        <f t="shared" ref="V72:AH72" si="21">U72+1</f>
+        <v>3</v>
+      </c>
+      <c r="W72" s="3">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="Z72" s="3">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AA72" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AB72" s="3">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="AC72" s="3">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="AD72" s="3">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AE72" s="3">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="AF72" s="3">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="AG72" s="3">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="AH72" s="3">
+        <f t="shared" si="21"/>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="2:34" x14ac:dyDescent="0.2">
@@ -8540,49 +8562,49 @@
         <f>S74-1</f>
         <v>1978</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="2">
         <v>2.2360150000000001</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="2">
         <v>0.41657179999999999</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="2">
         <v>0.34662670000000001</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="2">
         <v>0.32040691999999998</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="2">
         <v>0.30524814</v>
       </c>
-      <c r="Y73">
+      <c r="Y73" s="2">
         <v>0.30591763</v>
       </c>
-      <c r="Z73">
+      <c r="Z73" s="2">
         <v>0.30495765499999999</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" s="2">
         <v>0.30512027000000003</v>
       </c>
-      <c r="AB73">
+      <c r="AB73" s="2">
         <v>0.306376127</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD73">
+      <c r="AD73" s="2">
         <v>0.30202343999999998</v>
       </c>
-      <c r="AE73">
+      <c r="AE73" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AF73">
+      <c r="AF73" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AG73">
+      <c r="AG73" s="2">
         <v>0.30296069799999997</v>
       </c>
-      <c r="AH73">
+      <c r="AH73" s="2">
         <v>0.30296069799999997</v>
       </c>
     </row>
@@ -8591,52 +8613,52 @@
         <v>2.2360150000000001</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74:S112" si="21">S75-1</f>
+        <f t="shared" ref="S74:S112" si="22">S75-1</f>
         <v>1979</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="2">
         <v>2.4536129999999998</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="2">
         <v>0.41329379999999999</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="2">
         <v>0.3432694</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="2">
         <v>0.31889843000000001</v>
       </c>
-      <c r="X74">
+      <c r="X74" s="2">
         <v>0.304741284</v>
       </c>
-      <c r="Y74">
+      <c r="Y74" s="2">
         <v>0.30544059000000001</v>
       </c>
-      <c r="Z74">
+      <c r="Z74" s="2">
         <v>0.30471207500000003</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" s="2">
         <v>0.30446472200000002</v>
       </c>
-      <c r="AB74">
+      <c r="AB74" s="2">
         <v>0.30631684599999998</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD74">
+      <c r="AD74" s="2">
         <v>0.30155397499999997</v>
       </c>
-      <c r="AE74">
+      <c r="AE74" s="2">
         <v>0.30295040899999998</v>
       </c>
-      <c r="AF74">
+      <c r="AF74" s="2">
         <v>0.30295040899999998</v>
       </c>
-      <c r="AG74">
+      <c r="AG74" s="2">
         <v>0.30295040899999998</v>
       </c>
-      <c r="AH74">
+      <c r="AH74" s="2">
         <v>0.30295040899999998</v>
       </c>
     </row>
@@ -8645,52 +8667,52 @@
         <v>2.4536129999999998</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1980</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="2">
         <v>2.6649699999999998</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="2">
         <v>0.42687079999999999</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="2">
         <v>0.34610020000000002</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="2">
         <v>0.32059009999999999</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="2">
         <v>0.30527908999999998</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="2">
         <v>0.30581786</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="2">
         <v>0.30513231000000002</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="2">
         <v>0.30470199999999997</v>
       </c>
-      <c r="AB75">
+      <c r="AB75" s="2">
         <v>0.30697786999999999</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD75">
+      <c r="AD75" s="2">
         <v>0.30145996200000003</v>
       </c>
-      <c r="AE75">
+      <c r="AE75" s="2">
         <v>0.30314428599999999</v>
       </c>
-      <c r="AF75">
+      <c r="AF75" s="2">
         <v>0.30314428599999999</v>
       </c>
-      <c r="AG75">
+      <c r="AG75" s="2">
         <v>0.30314428599999999</v>
       </c>
-      <c r="AH75">
+      <c r="AH75" s="2">
         <v>0.30314428599999999</v>
       </c>
     </row>
@@ -8699,52 +8721,52 @@
         <v>2.6649699999999998</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1981</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="2">
         <v>2.8654600000000001</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="2">
         <v>0.46282309999999999</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="2">
         <v>0.35948570000000002</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="2">
         <v>0.32633450000000003</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="2">
         <v>0.30712529999999999</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="2">
         <v>0.30794106999999998</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="2">
         <v>0.30653397999999998</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="2">
         <v>0.30604489000000001</v>
       </c>
-      <c r="AB76">
+      <c r="AB76" s="2">
         <v>0.30865297000000003</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD76">
+      <c r="AD76" s="2">
         <v>0.30142583499999998</v>
       </c>
-      <c r="AE76">
+      <c r="AE76" s="2">
         <v>0.30456558</v>
       </c>
-      <c r="AF76">
+      <c r="AF76" s="2">
         <v>0.30456558</v>
       </c>
-      <c r="AG76">
+      <c r="AG76" s="2">
         <v>0.30456558</v>
       </c>
-      <c r="AH76">
+      <c r="AH76" s="2">
         <v>0.30456558</v>
       </c>
     </row>
@@ -8753,52 +8775,52 @@
         <v>2.8654600000000001</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1982</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="2">
         <v>2.8260200000000002</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="2">
         <v>0.46491890000000002</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="2">
         <v>0.36238559999999997</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="2">
         <v>0.32796219999999998</v>
       </c>
-      <c r="X77">
+      <c r="X77" s="2">
         <v>0.30735490999999998</v>
       </c>
-      <c r="Y77">
+      <c r="Y77" s="2">
         <v>0.30827570999999998</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="2">
         <v>0.30783447000000003</v>
       </c>
-      <c r="AA77">
+      <c r="AA77" s="2">
         <v>0.30660073999999998</v>
       </c>
-      <c r="AB77">
+      <c r="AB77" s="2">
         <v>0.31053481999999999</v>
       </c>
-      <c r="AC77">
+      <c r="AC77" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD77">
+      <c r="AD77" s="2">
         <v>0.30156914899999998</v>
       </c>
-      <c r="AE77">
+      <c r="AE77" s="2">
         <v>0.30591180000000001</v>
       </c>
-      <c r="AF77">
+      <c r="AF77" s="2">
         <v>0.30591180000000001</v>
       </c>
-      <c r="AG77">
+      <c r="AG77" s="2">
         <v>0.30591180000000001</v>
       </c>
-      <c r="AH77">
+      <c r="AH77" s="2">
         <v>0.30591180000000001</v>
       </c>
     </row>
@@ -8807,52 +8829,52 @@
         <v>2.8260200000000002</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1983</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="2">
         <v>3.1855199999999999</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="2">
         <v>0.49274299999999999</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="2">
         <v>0.37510789999999999</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="2">
         <v>0.3361304</v>
       </c>
-      <c r="X78">
+      <c r="X78" s="2">
         <v>0.3087086</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="2">
         <v>0.30968181</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="2">
         <v>0.31164011000000003</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="2">
         <v>0.30843837000000002</v>
       </c>
-      <c r="AB78">
+      <c r="AB78" s="2">
         <v>0.3165075</v>
       </c>
-      <c r="AC78">
+      <c r="AC78" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD78">
+      <c r="AD78" s="2">
         <v>0.30172579500000002</v>
       </c>
-      <c r="AE78">
+      <c r="AE78" s="2">
         <v>0.30750982999999998</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="2">
         <v>0.30750982999999998</v>
       </c>
-      <c r="AG78">
+      <c r="AG78" s="2">
         <v>0.30750982999999998</v>
       </c>
-      <c r="AH78">
+      <c r="AH78" s="2">
         <v>0.30750982999999998</v>
       </c>
     </row>
@@ -8861,52 +8883,52 @@
         <v>3.1855199999999999</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1984</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="2">
         <v>3.1751</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="2">
         <v>0.47844310000000001</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="2">
         <v>0.3707338</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="2">
         <v>0.33483370000000001</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="2">
         <v>0.30888215000000002</v>
       </c>
-      <c r="Y79">
+      <c r="Y79" s="2">
         <v>0.30946759000000001</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="2">
         <v>0.31113329000000001</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" s="2">
         <v>0.30841524999999997</v>
       </c>
-      <c r="AB79">
+      <c r="AB79" s="2">
         <v>0.31522594999999998</v>
       </c>
-      <c r="AC79">
+      <c r="AC79" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD79">
+      <c r="AD79" s="2">
         <v>0.30212703299999999</v>
       </c>
-      <c r="AE79">
+      <c r="AE79" s="2">
         <v>0.30569274000000002</v>
       </c>
-      <c r="AF79">
+      <c r="AF79" s="2">
         <v>0.30569274000000002</v>
       </c>
-      <c r="AG79">
+      <c r="AG79" s="2">
         <v>0.30569274000000002</v>
       </c>
-      <c r="AH79">
+      <c r="AH79" s="2">
         <v>0.30569274000000002</v>
       </c>
     </row>
@@ -8915,52 +8937,52 @@
         <v>3.1751</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1985</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="2">
         <v>3.2722799999999999</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="2">
         <v>0.4851876</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="2">
         <v>0.3735502</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="2">
         <v>0.33546959999999998</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="2">
         <v>0.30977042999999999</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="2">
         <v>0.31019133999999998</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="2">
         <v>0.31034841000000002</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" s="2">
         <v>0.30896889999999999</v>
       </c>
-      <c r="AB80">
+      <c r="AB80" s="2">
         <v>0.31327544000000002</v>
       </c>
-      <c r="AC80">
+      <c r="AC80" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD80">
+      <c r="AD80" s="2">
         <v>0.30399249</v>
       </c>
-      <c r="AE80">
+      <c r="AE80" s="2">
         <v>0.30480481999999998</v>
       </c>
-      <c r="AF80">
+      <c r="AF80" s="2">
         <v>0.30480481999999998</v>
       </c>
-      <c r="AG80">
+      <c r="AG80" s="2">
         <v>0.30480481999999998</v>
       </c>
-      <c r="AH80">
+      <c r="AH80" s="2">
         <v>0.30480481999999998</v>
       </c>
     </row>
@@ -8969,52 +8991,52 @@
         <v>3.2722799999999999</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1986</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="2">
         <v>3.47045</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="2">
         <v>0.51603200000000005</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="2">
         <v>0.38639109999999999</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="2">
         <v>0.34359230000000002</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="2">
         <v>0.31270843999999998</v>
       </c>
-      <c r="Y81">
+      <c r="Y81" s="2">
         <v>0.31262134000000003</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="2">
         <v>0.31102880999999999</v>
       </c>
-      <c r="AA81">
+      <c r="AA81" s="2">
         <v>0.31197578999999998</v>
       </c>
-      <c r="AB81">
+      <c r="AB81" s="2">
         <v>0.31335017999999998</v>
       </c>
-      <c r="AC81">
+      <c r="AC81" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD81">
+      <c r="AD81" s="2">
         <v>0.30782303</v>
       </c>
-      <c r="AE81">
+      <c r="AE81" s="2">
         <v>0.30505386000000001</v>
       </c>
-      <c r="AF81">
+      <c r="AF81" s="2">
         <v>0.30505386000000001</v>
       </c>
-      <c r="AG81">
+      <c r="AG81" s="2">
         <v>0.30505386000000001</v>
       </c>
-      <c r="AH81">
+      <c r="AH81" s="2">
         <v>0.30505386000000001</v>
       </c>
     </row>
@@ -9023,52 +9045,52 @@
         <v>3.47045</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1987</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="2">
         <v>3.3490799999999998</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="2">
         <v>0.52755700000000005</v>
       </c>
-      <c r="V82">
+      <c r="V82" s="2">
         <v>0.39086090000000001</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="2">
         <v>0.34225450000000002</v>
       </c>
-      <c r="X82">
+      <c r="X82" s="2">
         <v>0.31238832999999999</v>
       </c>
-      <c r="Y82">
+      <c r="Y82" s="2">
         <v>0.31245665</v>
       </c>
-      <c r="Z82">
+      <c r="Z82" s="2">
         <v>0.31108439999999998</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" s="2">
         <v>0.31150050000000001</v>
       </c>
-      <c r="AB82">
+      <c r="AB82" s="2">
         <v>0.31302894999999997</v>
       </c>
-      <c r="AC82">
+      <c r="AC82" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD82">
+      <c r="AD82" s="2">
         <v>0.30558236999999999</v>
       </c>
-      <c r="AE82">
+      <c r="AE82" s="2">
         <v>0.30703859999999999</v>
       </c>
-      <c r="AF82">
+      <c r="AF82" s="2">
         <v>0.30703859999999999</v>
       </c>
-      <c r="AG82">
+      <c r="AG82" s="2">
         <v>0.30703859999999999</v>
       </c>
-      <c r="AH82">
+      <c r="AH82" s="2">
         <v>0.30703859999999999</v>
       </c>
     </row>
@@ -9077,52 +9099,52 @@
         <v>3.3490799999999998</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1988</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="2">
         <v>3.3056299999999998</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="2">
         <v>0.56305799999999995</v>
       </c>
-      <c r="V83">
+      <c r="V83" s="2">
         <v>0.406474</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="2">
         <v>0.3514022</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="2">
         <v>0.31367177000000002</v>
       </c>
-      <c r="Y83">
+      <c r="Y83" s="2">
         <v>0.3143128</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="2">
         <v>0.31474269999999999</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" s="2">
         <v>0.31488310000000003</v>
       </c>
-      <c r="AB83">
+      <c r="AB83" s="2">
         <v>0.3187506</v>
       </c>
-      <c r="AC83">
+      <c r="AC83" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD83">
+      <c r="AD83" s="2">
         <v>0.30626071999999999</v>
       </c>
-      <c r="AE83">
+      <c r="AE83" s="2">
         <v>0.30896750000000001</v>
       </c>
-      <c r="AF83">
+      <c r="AF83" s="2">
         <v>0.30896750000000001</v>
       </c>
-      <c r="AG83">
+      <c r="AG83" s="2">
         <v>0.30896750000000001</v>
       </c>
-      <c r="AH83">
+      <c r="AH83" s="2">
         <v>0.30896750000000001</v>
       </c>
     </row>
@@ -9131,52 +9153,52 @@
         <v>3.3056299999999998</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1989</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="2">
         <v>2.8297400000000001</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="2">
         <v>0.49299300000000001</v>
       </c>
-      <c r="V84">
+      <c r="V84" s="2">
         <v>0.37917089999999998</v>
       </c>
-      <c r="W84">
+      <c r="W84" s="2">
         <v>0.33837499999999998</v>
       </c>
-      <c r="X84">
+      <c r="X84" s="2">
         <v>0.31074619999999997</v>
       </c>
-      <c r="Y84">
+      <c r="Y84" s="2">
         <v>0.31091275000000002</v>
       </c>
-      <c r="Z84">
+      <c r="Z84" s="2">
         <v>0.31146374999999998</v>
       </c>
-      <c r="AA84">
+      <c r="AA84" s="2">
         <v>0.31113256</v>
       </c>
-      <c r="AB84">
+      <c r="AB84" s="2">
         <v>0.31501077</v>
       </c>
-      <c r="AC84">
+      <c r="AC84" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD84">
+      <c r="AD84" s="2">
         <v>0.30310559999999998</v>
       </c>
-      <c r="AE84">
+      <c r="AE84" s="2">
         <v>0.30601241000000001</v>
       </c>
-      <c r="AF84">
+      <c r="AF84" s="2">
         <v>0.30601241000000001</v>
       </c>
-      <c r="AG84">
+      <c r="AG84" s="2">
         <v>0.30601241000000001</v>
       </c>
-      <c r="AH84">
+      <c r="AH84" s="2">
         <v>0.30601241000000001</v>
       </c>
     </row>
@@ -9185,52 +9207,52 @@
         <v>2.8297400000000001</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1990</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="2">
         <v>2.8630200000000001</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="2">
         <v>0.46255360000000001</v>
       </c>
-      <c r="V85">
+      <c r="V85" s="2">
         <v>0.3663035</v>
       </c>
-      <c r="W85">
+      <c r="W85" s="2">
         <v>0.33027400000000001</v>
       </c>
-      <c r="X85">
+      <c r="X85" s="2">
         <v>0.30830708000000001</v>
       </c>
-      <c r="Y85">
+      <c r="Y85" s="2">
         <v>0.30929686000000001</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="2">
         <v>0.30898132</v>
       </c>
-      <c r="AA85">
+      <c r="AA85" s="2">
         <v>0.30863638999999998</v>
       </c>
-      <c r="AB85">
+      <c r="AB85" s="2">
         <v>0.31186684999999997</v>
       </c>
-      <c r="AC85">
+      <c r="AC85" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD85">
+      <c r="AD85" s="2">
         <v>0.30338036000000002</v>
       </c>
-      <c r="AE85">
+      <c r="AE85" s="2">
         <v>0.30532421999999998</v>
       </c>
-      <c r="AF85">
+      <c r="AF85" s="2">
         <v>0.30532421999999998</v>
       </c>
-      <c r="AG85">
+      <c r="AG85" s="2">
         <v>0.30532421999999998</v>
       </c>
-      <c r="AH85">
+      <c r="AH85" s="2">
         <v>0.30532421999999998</v>
       </c>
     </row>
@@ -9239,52 +9261,52 @@
         <v>2.8630200000000001</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1991</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="2">
         <v>2.9011999999999998</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="2">
         <v>0.43961739999999999</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="2">
         <v>0.35431869999999999</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="2">
         <v>0.32629130000000001</v>
       </c>
-      <c r="X86">
+      <c r="X86" s="2">
         <v>0.30654160000000003</v>
       </c>
-      <c r="Y86">
+      <c r="Y86" s="2">
         <v>0.30699760999999998</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="2">
         <v>0.30729066999999999</v>
       </c>
-      <c r="AA86">
+      <c r="AA86" s="2">
         <v>0.30678779</v>
       </c>
-      <c r="AB86">
+      <c r="AB86" s="2">
         <v>0.31058764</v>
       </c>
-      <c r="AC86">
+      <c r="AC86" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD86">
+      <c r="AD86" s="2">
         <v>0.30303614000000001</v>
       </c>
-      <c r="AE86">
+      <c r="AE86" s="2">
         <v>0.30360938999999998</v>
       </c>
-      <c r="AF86">
+      <c r="AF86" s="2">
         <v>0.30360938999999998</v>
       </c>
-      <c r="AG86">
+      <c r="AG86" s="2">
         <v>0.30360938999999998</v>
       </c>
-      <c r="AH86">
+      <c r="AH86" s="2">
         <v>0.30360938999999998</v>
       </c>
     </row>
@@ -9293,52 +9315,52 @@
         <v>2.9011999999999998</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1992</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="2">
         <v>2.8827699999999998</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="2">
         <v>0.4268171</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="2">
         <v>0.34829979999999999</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="2">
         <v>0.32073361</v>
       </c>
-      <c r="X87">
+      <c r="X87" s="2">
         <v>0.30566618000000001</v>
       </c>
-      <c r="Y87">
+      <c r="Y87" s="2">
         <v>0.30603358000000003</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="2">
         <v>0.30536788999999998</v>
       </c>
-      <c r="AA87">
+      <c r="AA87" s="2">
         <v>0.30502623000000001</v>
       </c>
-      <c r="AB87">
+      <c r="AB87" s="2">
         <v>0.30734089999999997</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD87">
+      <c r="AD87" s="2">
         <v>0.301839419</v>
       </c>
-      <c r="AE87">
+      <c r="AE87" s="2">
         <v>0.30298117299999999</v>
       </c>
-      <c r="AF87">
+      <c r="AF87" s="2">
         <v>0.30298117299999999</v>
       </c>
-      <c r="AG87">
+      <c r="AG87" s="2">
         <v>0.30298117299999999</v>
       </c>
-      <c r="AH87">
+      <c r="AH87" s="2">
         <v>0.30298117299999999</v>
       </c>
     </row>
@@ -9347,52 +9369,52 @@
         <v>2.8827699999999998</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1993</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="2">
         <v>3.1252</v>
       </c>
-      <c r="U88">
+      <c r="U88" s="2">
         <v>0.44829940000000001</v>
       </c>
-      <c r="V88">
+      <c r="V88" s="2">
         <v>0.35425020000000002</v>
       </c>
-      <c r="W88">
+      <c r="W88" s="2">
         <v>0.32424826000000001</v>
       </c>
-      <c r="X88">
+      <c r="X88" s="2">
         <v>0.30634875</v>
       </c>
-      <c r="Y88">
+      <c r="Y88" s="2">
         <v>0.30700263</v>
       </c>
-      <c r="Z88">
+      <c r="Z88" s="2">
         <v>0.30571865999999998</v>
       </c>
-      <c r="AA88">
+      <c r="AA88" s="2">
         <v>0.30574602000000001</v>
       </c>
-      <c r="AB88">
+      <c r="AB88" s="2">
         <v>0.30821136999999998</v>
       </c>
-      <c r="AC88">
+      <c r="AC88" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD88">
+      <c r="AD88" s="2">
         <v>0.30223122000000002</v>
       </c>
-      <c r="AE88">
+      <c r="AE88" s="2">
         <v>0.30361802999999998</v>
       </c>
-      <c r="AF88">
+      <c r="AF88" s="2">
         <v>0.30361802999999998</v>
       </c>
-      <c r="AG88">
+      <c r="AG88" s="2">
         <v>0.30361802999999998</v>
       </c>
-      <c r="AH88">
+      <c r="AH88" s="2">
         <v>0.30361802999999998</v>
       </c>
     </row>
@@ -9401,52 +9423,52 @@
         <v>3.1252</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1994</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="2">
         <v>3.2003200000000001</v>
       </c>
-      <c r="U89">
+      <c r="U89" s="2">
         <v>0.46896700000000002</v>
       </c>
-      <c r="V89">
+      <c r="V89" s="2">
         <v>0.3618808</v>
       </c>
-      <c r="W89">
+      <c r="W89" s="2">
         <v>0.32669490000000001</v>
       </c>
-      <c r="X89">
+      <c r="X89" s="2">
         <v>0.30711272000000001</v>
       </c>
-      <c r="Y89">
+      <c r="Y89" s="2">
         <v>0.30806935000000002</v>
       </c>
-      <c r="Z89">
+      <c r="Z89" s="2">
         <v>0.30686577999999998</v>
       </c>
-      <c r="AA89">
+      <c r="AA89" s="2">
         <v>0.30624403</v>
       </c>
-      <c r="AB89">
+      <c r="AB89" s="2">
         <v>0.30958817999999999</v>
       </c>
-      <c r="AC89">
+      <c r="AC89" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD89">
+      <c r="AD89" s="2">
         <v>0.30165414899999998</v>
       </c>
-      <c r="AE89">
+      <c r="AE89" s="2">
         <v>0.30505761999999997</v>
       </c>
-      <c r="AF89">
+      <c r="AF89" s="2">
         <v>0.30505761999999997</v>
       </c>
-      <c r="AG89">
+      <c r="AG89" s="2">
         <v>0.30505761999999997</v>
       </c>
-      <c r="AH89">
+      <c r="AH89" s="2">
         <v>0.30505761999999997</v>
       </c>
     </row>
@@ -9455,52 +9477,52 @@
         <v>3.2003200000000001</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1995</v>
       </c>
-      <c r="T90">
+      <c r="T90" s="2">
         <v>3.0059399999999998</v>
       </c>
-      <c r="U90">
+      <c r="U90" s="2">
         <v>0.46893600000000002</v>
       </c>
-      <c r="V90">
+      <c r="V90" s="2">
         <v>0.36368780000000001</v>
       </c>
-      <c r="W90">
+      <c r="W90" s="2">
         <v>0.32771489999999998</v>
       </c>
-      <c r="X90">
+      <c r="X90" s="2">
         <v>0.30695694000000001</v>
       </c>
-      <c r="Y90">
+      <c r="Y90" s="2">
         <v>0.30787382000000002</v>
       </c>
-      <c r="Z90">
+      <c r="Z90" s="2">
         <v>0.30782644999999997</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" s="2">
         <v>0.30636804000000001</v>
       </c>
-      <c r="AB90">
+      <c r="AB90" s="2">
         <v>0.31129382999999999</v>
       </c>
-      <c r="AC90">
+      <c r="AC90" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD90">
+      <c r="AD90" s="2">
         <v>0.30151606600000003</v>
       </c>
-      <c r="AE90">
+      <c r="AE90" s="2">
         <v>0.30556299999999997</v>
       </c>
-      <c r="AF90">
+      <c r="AF90" s="2">
         <v>0.30556299999999997</v>
       </c>
-      <c r="AG90">
+      <c r="AG90" s="2">
         <v>0.30556299999999997</v>
       </c>
-      <c r="AH90">
+      <c r="AH90" s="2">
         <v>0.30556299999999997</v>
       </c>
     </row>
@@ -9509,52 +9531,52 @@
         <v>3.0059399999999998</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1996</v>
       </c>
-      <c r="T91">
+      <c r="T91" s="2">
         <v>2.83589</v>
       </c>
-      <c r="U91">
+      <c r="U91" s="2">
         <v>0.46193319999999999</v>
       </c>
-      <c r="V91">
+      <c r="V91" s="2">
         <v>0.36194290000000001</v>
       </c>
-      <c r="W91">
+      <c r="W91" s="2">
         <v>0.32783580000000001</v>
       </c>
-      <c r="X91">
+      <c r="X91" s="2">
         <v>0.30706662000000001</v>
       </c>
-      <c r="Y91">
+      <c r="Y91" s="2">
         <v>0.30777587000000001</v>
       </c>
-      <c r="Z91">
+      <c r="Z91" s="2">
         <v>0.30774087999999999</v>
       </c>
-      <c r="AA91">
+      <c r="AA91" s="2">
         <v>0.30631881999999999</v>
       </c>
-      <c r="AB91">
+      <c r="AB91" s="2">
         <v>0.31103807</v>
       </c>
-      <c r="AC91">
+      <c r="AC91" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD91">
+      <c r="AD91" s="2">
         <v>0.30142924599999998</v>
       </c>
-      <c r="AE91">
+      <c r="AE91" s="2">
         <v>0.30480114000000003</v>
       </c>
-      <c r="AF91">
+      <c r="AF91" s="2">
         <v>0.30480114000000003</v>
       </c>
-      <c r="AG91">
+      <c r="AG91" s="2">
         <v>0.30480114000000003</v>
       </c>
-      <c r="AH91">
+      <c r="AH91" s="2">
         <v>0.30480114000000003</v>
       </c>
     </row>
@@ -9563,52 +9585,52 @@
         <v>2.83589</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1997</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="2">
         <v>3.1188799999999999</v>
       </c>
-      <c r="U92">
+      <c r="U92" s="2">
         <v>0.48126540000000001</v>
       </c>
-      <c r="V92">
+      <c r="V92" s="2">
         <v>0.36991600000000002</v>
       </c>
-      <c r="W92">
+      <c r="W92" s="2">
         <v>0.33238459999999997</v>
       </c>
-      <c r="X92">
+      <c r="X92" s="2">
         <v>0.30848331000000001</v>
       </c>
-      <c r="Y92">
+      <c r="Y92" s="2">
         <v>0.30929246999999999</v>
       </c>
-      <c r="Z92">
+      <c r="Z92" s="2">
         <v>0.30923192999999999</v>
       </c>
-      <c r="AA92">
+      <c r="AA92" s="2">
         <v>0.30764167999999997</v>
       </c>
-      <c r="AB92">
+      <c r="AB92" s="2">
         <v>0.31256608000000002</v>
       </c>
-      <c r="AC92">
+      <c r="AC92" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD92">
+      <c r="AD92" s="2">
         <v>0.30192365399999999</v>
       </c>
-      <c r="AE92">
+      <c r="AE92" s="2">
         <v>0.30613511999999998</v>
       </c>
-      <c r="AF92">
+      <c r="AF92" s="2">
         <v>0.30613511999999998</v>
       </c>
-      <c r="AG92">
+      <c r="AG92" s="2">
         <v>0.30613511999999998</v>
       </c>
-      <c r="AH92">
+      <c r="AH92" s="2">
         <v>0.30613511999999998</v>
       </c>
     </row>
@@ -9617,52 +9639,52 @@
         <v>3.1188799999999999</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1998</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="2">
         <v>2.8482699999999999</v>
       </c>
-      <c r="U93">
+      <c r="U93" s="2">
         <v>0.44743139999999998</v>
       </c>
-      <c r="V93">
+      <c r="V93" s="2">
         <v>0.35521609999999998</v>
       </c>
-      <c r="W93">
+      <c r="W93" s="2">
         <v>0.32408725999999999</v>
       </c>
-      <c r="X93">
+      <c r="X93" s="2">
         <v>0.30585527000000001</v>
       </c>
-      <c r="Y93">
+      <c r="Y93" s="2">
         <v>0.30722697999999998</v>
       </c>
-      <c r="Z93">
+      <c r="Z93" s="2">
         <v>0.30676488000000002</v>
       </c>
-      <c r="AA93">
+      <c r="AA93" s="2">
         <v>0.30540756000000002</v>
       </c>
-      <c r="AB93">
+      <c r="AB93" s="2">
         <v>0.30957684000000002</v>
       </c>
-      <c r="AC93">
+      <c r="AC93" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD93">
+      <c r="AD93" s="2">
         <v>0.30181061100000001</v>
       </c>
-      <c r="AE93">
+      <c r="AE93" s="2">
         <v>0.30430368000000002</v>
       </c>
-      <c r="AF93">
+      <c r="AF93" s="2">
         <v>0.30430368000000002</v>
       </c>
-      <c r="AG93">
+      <c r="AG93" s="2">
         <v>0.30430368000000002</v>
       </c>
-      <c r="AH93">
+      <c r="AH93" s="2">
         <v>0.30430368000000002</v>
       </c>
     </row>
@@ -9671,52 +9693,52 @@
         <v>2.8482699999999999</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1999</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="2">
         <v>2.9331200000000002</v>
       </c>
-      <c r="U94">
+      <c r="U94" s="2">
         <v>0.45882630000000002</v>
       </c>
-      <c r="V94">
+      <c r="V94" s="2">
         <v>0.35941289999999998</v>
       </c>
-      <c r="W94">
+      <c r="W94" s="2">
         <v>0.32519920000000002</v>
       </c>
-      <c r="X94">
+      <c r="X94" s="2">
         <v>0.30635308</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="2">
         <v>0.30702508000000001</v>
       </c>
-      <c r="Z94">
+      <c r="Z94" s="2">
         <v>0.30669329000000001</v>
       </c>
-      <c r="AA94">
+      <c r="AA94" s="2">
         <v>0.30559332</v>
       </c>
-      <c r="AB94">
+      <c r="AB94" s="2">
         <v>0.30932717999999998</v>
       </c>
-      <c r="AC94">
+      <c r="AC94" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD94">
+      <c r="AD94" s="2">
         <v>0.30175203900000003</v>
       </c>
-      <c r="AE94">
+      <c r="AE94" s="2">
         <v>0.30359523999999999</v>
       </c>
-      <c r="AF94">
+      <c r="AF94" s="2">
         <v>0.30359523999999999</v>
       </c>
-      <c r="AG94">
+      <c r="AG94" s="2">
         <v>0.30359523999999999</v>
       </c>
-      <c r="AH94">
+      <c r="AH94" s="2">
         <v>0.30359523999999999</v>
       </c>
     </row>
@@ -9725,52 +9747,52 @@
         <v>2.9331200000000002</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2000</v>
       </c>
-      <c r="T95">
+      <c r="T95" s="2">
         <v>2.78972</v>
       </c>
-      <c r="U95">
+      <c r="U95" s="2">
         <v>0.45073940000000001</v>
       </c>
-      <c r="V95">
+      <c r="V95" s="2">
         <v>0.35655959999999998</v>
       </c>
-      <c r="W95">
+      <c r="W95" s="2">
         <v>0.32377175000000002</v>
       </c>
-      <c r="X95">
+      <c r="X95" s="2">
         <v>0.30636627999999999</v>
       </c>
-      <c r="Y95">
+      <c r="Y95" s="2">
         <v>0.30732727999999998</v>
       </c>
-      <c r="Z95">
+      <c r="Z95" s="2">
         <v>0.30594128999999998</v>
       </c>
-      <c r="AA95">
+      <c r="AA95" s="2">
         <v>0.30544297999999998</v>
       </c>
-      <c r="AB95">
+      <c r="AB95" s="2">
         <v>0.30820298000000002</v>
       </c>
-      <c r="AC95">
+      <c r="AC95" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD95">
+      <c r="AD95" s="2">
         <v>0.30183237800000001</v>
       </c>
-      <c r="AE95">
+      <c r="AE95" s="2">
         <v>0.30370172000000001</v>
       </c>
-      <c r="AF95">
+      <c r="AF95" s="2">
         <v>0.30370172000000001</v>
       </c>
-      <c r="AG95">
+      <c r="AG95" s="2">
         <v>0.30370172000000001</v>
       </c>
-      <c r="AH95">
+      <c r="AH95" s="2">
         <v>0.30370172000000001</v>
       </c>
     </row>
@@ -9779,52 +9801,52 @@
         <v>2.78972</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2001</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="2">
         <v>2.90754</v>
       </c>
-      <c r="U96">
+      <c r="U96" s="2">
         <v>0.4533124</v>
       </c>
-      <c r="V96">
+      <c r="V96" s="2">
         <v>0.35645120000000002</v>
       </c>
-      <c r="W96">
+      <c r="W96" s="2">
         <v>0.32486140000000002</v>
       </c>
-      <c r="X96">
+      <c r="X96" s="2">
         <v>0.30609068</v>
       </c>
-      <c r="Y96">
+      <c r="Y96" s="2">
         <v>0.30685528000000001</v>
       </c>
-      <c r="Z96">
+      <c r="Z96" s="2">
         <v>0.30613372</v>
       </c>
-      <c r="AA96">
+      <c r="AA96" s="2">
         <v>0.30552751</v>
       </c>
-      <c r="AB96">
+      <c r="AB96" s="2">
         <v>0.30871042999999998</v>
       </c>
-      <c r="AC96">
+      <c r="AC96" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD96">
+      <c r="AD96" s="2">
         <v>0.30185677</v>
       </c>
-      <c r="AE96">
+      <c r="AE96" s="2">
         <v>0.30427419</v>
       </c>
-      <c r="AF96">
+      <c r="AF96" s="2">
         <v>0.30427419</v>
       </c>
-      <c r="AG96">
+      <c r="AG96" s="2">
         <v>0.30427419</v>
       </c>
-      <c r="AH96">
+      <c r="AH96" s="2">
         <v>0.30427419</v>
       </c>
     </row>
@@ -9833,52 +9855,52 @@
         <v>2.90754</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2002</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="2">
         <v>3.0409999999999999</v>
       </c>
-      <c r="U97">
+      <c r="U97" s="2">
         <v>0.46097270000000001</v>
       </c>
-      <c r="V97">
+      <c r="V97" s="2">
         <v>0.35798400000000002</v>
       </c>
-      <c r="W97">
+      <c r="W97" s="2">
         <v>0.32561289999999998</v>
       </c>
-      <c r="X97">
+      <c r="X97" s="2">
         <v>0.30627174000000001</v>
       </c>
-      <c r="Y97">
+      <c r="Y97" s="2">
         <v>0.30707623000000001</v>
       </c>
-      <c r="Z97">
+      <c r="Z97" s="2">
         <v>0.30699960999999998</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" s="2">
         <v>0.30559237</v>
       </c>
-      <c r="AB97">
+      <c r="AB97" s="2">
         <v>0.31005849000000002</v>
       </c>
-      <c r="AC97">
+      <c r="AC97" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD97">
+      <c r="AD97" s="2">
         <v>0.30153784300000003</v>
       </c>
-      <c r="AE97">
+      <c r="AE97" s="2">
         <v>0.30454049999999999</v>
       </c>
-      <c r="AF97">
+      <c r="AF97" s="2">
         <v>0.30454049999999999</v>
       </c>
-      <c r="AG97">
+      <c r="AG97" s="2">
         <v>0.30454049999999999</v>
       </c>
-      <c r="AH97">
+      <c r="AH97" s="2">
         <v>0.30454049999999999</v>
       </c>
     </row>
@@ -9887,52 +9909,52 @@
         <v>3.0409999999999999</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2003</v>
       </c>
-      <c r="T98">
+      <c r="T98" s="2">
         <v>3.0463300000000002</v>
       </c>
-      <c r="U98">
+      <c r="U98" s="2">
         <v>0.47862700000000002</v>
       </c>
-      <c r="V98">
+      <c r="V98" s="2">
         <v>0.36747999999999997</v>
       </c>
-      <c r="W98">
+      <c r="W98" s="2">
         <v>0.32839259999999998</v>
       </c>
-      <c r="X98">
+      <c r="X98" s="2">
         <v>0.30694442</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="2">
         <v>0.30753946999999998</v>
       </c>
-      <c r="Z98">
+      <c r="Z98" s="2">
         <v>0.30723718</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" s="2">
         <v>0.30609804000000002</v>
       </c>
-      <c r="AB98">
+      <c r="AB98" s="2">
         <v>0.31038818000000001</v>
       </c>
-      <c r="AC98">
+      <c r="AC98" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD98">
+      <c r="AD98" s="2">
         <v>0.301524819</v>
       </c>
-      <c r="AE98">
+      <c r="AE98" s="2">
         <v>0.30428213999999998</v>
       </c>
-      <c r="AF98">
+      <c r="AF98" s="2">
         <v>0.30428213999999998</v>
       </c>
-      <c r="AG98">
+      <c r="AG98" s="2">
         <v>0.30428213999999998</v>
       </c>
-      <c r="AH98">
+      <c r="AH98" s="2">
         <v>0.30428213999999998</v>
       </c>
     </row>
@@ -9941,52 +9963,52 @@
         <v>3.0463300000000002</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2004</v>
       </c>
-      <c r="T99">
+      <c r="T99" s="2">
         <v>3.08216</v>
       </c>
-      <c r="U99">
+      <c r="U99" s="2">
         <v>0.50829000000000002</v>
       </c>
-      <c r="V99">
+      <c r="V99" s="2">
         <v>0.38421739999999999</v>
       </c>
-      <c r="W99">
+      <c r="W99" s="2">
         <v>0.33423750000000002</v>
       </c>
-      <c r="X99">
+      <c r="X99" s="2">
         <v>0.30944009</v>
       </c>
-      <c r="Y99">
+      <c r="Y99" s="2">
         <v>0.31057757000000003</v>
       </c>
-      <c r="Z99">
+      <c r="Z99" s="2">
         <v>0.30966629000000001</v>
       </c>
-      <c r="AA99">
+      <c r="AA99" s="2">
         <v>0.30843516999999998</v>
       </c>
-      <c r="AB99">
+      <c r="AB99" s="2">
         <v>0.31282009</v>
       </c>
-      <c r="AC99">
+      <c r="AC99" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD99">
+      <c r="AD99" s="2">
         <v>0.30229067999999998</v>
       </c>
-      <c r="AE99">
+      <c r="AE99" s="2">
         <v>0.30680608999999998</v>
       </c>
-      <c r="AF99">
+      <c r="AF99" s="2">
         <v>0.30680608999999998</v>
       </c>
-      <c r="AG99">
+      <c r="AG99" s="2">
         <v>0.30680608999999998</v>
       </c>
-      <c r="AH99">
+      <c r="AH99" s="2">
         <v>0.30680608999999998</v>
       </c>
     </row>
@@ -9995,52 +10017,52 @@
         <v>3.08216</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2005</v>
       </c>
-      <c r="T100">
+      <c r="T100" s="2">
         <v>3.0061900000000001</v>
       </c>
-      <c r="U100">
+      <c r="U100" s="2">
         <v>0.50314099999999995</v>
       </c>
-      <c r="V100">
+      <c r="V100" s="2">
         <v>0.38433970000000001</v>
       </c>
-      <c r="W100">
+      <c r="W100" s="2">
         <v>0.3347503</v>
       </c>
-      <c r="X100">
+      <c r="X100" s="2">
         <v>0.30734953999999998</v>
       </c>
-      <c r="Y100">
+      <c r="Y100" s="2">
         <v>0.30901377000000002</v>
       </c>
-      <c r="Z100">
+      <c r="Z100" s="2">
         <v>0.30908184999999999</v>
       </c>
-      <c r="AA100">
+      <c r="AA100" s="2">
         <v>0.30687824000000002</v>
       </c>
-      <c r="AB100">
+      <c r="AB100" s="2">
         <v>0.31289635999999998</v>
       </c>
-      <c r="AC100">
+      <c r="AC100" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD100">
+      <c r="AD100" s="2">
         <v>0.30232575</v>
       </c>
-      <c r="AE100">
+      <c r="AE100" s="2">
         <v>0.30610214000000002</v>
       </c>
-      <c r="AF100">
+      <c r="AF100" s="2">
         <v>0.30610214000000002</v>
       </c>
-      <c r="AG100">
+      <c r="AG100" s="2">
         <v>0.30610214000000002</v>
       </c>
-      <c r="AH100">
+      <c r="AH100" s="2">
         <v>0.30610214000000002</v>
       </c>
     </row>
@@ -10049,52 +10071,52 @@
         <v>3.0061900000000001</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2006</v>
       </c>
-      <c r="T101">
+      <c r="T101" s="2">
         <v>2.7569300000000001</v>
       </c>
-      <c r="U101">
+      <c r="U101" s="2">
         <v>0.47146260000000001</v>
       </c>
-      <c r="V101">
+      <c r="V101" s="2">
         <v>0.37252610000000003</v>
       </c>
-      <c r="W101">
+      <c r="W101" s="2">
         <v>0.33015870000000003</v>
       </c>
-      <c r="X101">
+      <c r="X101" s="2">
         <v>0.30738039</v>
       </c>
-      <c r="Y101">
+      <c r="Y101" s="2">
         <v>0.30808287000000001</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="2">
         <v>0.30824755999999998</v>
       </c>
-      <c r="AA101">
+      <c r="AA101" s="2">
         <v>0.30678581999999999</v>
       </c>
-      <c r="AB101">
+      <c r="AB101" s="2">
         <v>0.31151148000000001</v>
       </c>
-      <c r="AC101">
+      <c r="AC101" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD101">
+      <c r="AD101" s="2">
         <v>0.30185274600000001</v>
       </c>
-      <c r="AE101">
+      <c r="AE101" s="2">
         <v>0.30431188999999997</v>
       </c>
-      <c r="AF101">
+      <c r="AF101" s="2">
         <v>0.30431188999999997</v>
       </c>
-      <c r="AG101">
+      <c r="AG101" s="2">
         <v>0.30431188999999997</v>
       </c>
-      <c r="AH101">
+      <c r="AH101" s="2">
         <v>0.30431188999999997</v>
       </c>
     </row>
@@ -10103,52 +10125,52 @@
         <v>2.7569300000000001</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2007</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="2">
         <v>2.8136800000000002</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="2">
         <v>0.47357670000000002</v>
       </c>
-      <c r="V102">
+      <c r="V102" s="2">
         <v>0.3639754</v>
       </c>
-      <c r="W102">
+      <c r="W102" s="2">
         <v>0.32935490000000001</v>
       </c>
-      <c r="X102">
+      <c r="X102" s="2">
         <v>0.30699532000000002</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="2">
         <v>0.30805033999999998</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="2">
         <v>0.30706475999999999</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="2">
         <v>0.30615369999999997</v>
       </c>
-      <c r="AB102">
+      <c r="AB102" s="2">
         <v>0.30936785999999999</v>
       </c>
-      <c r="AC102">
+      <c r="AC102" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD102">
+      <c r="AD102" s="2">
         <v>0.302093265</v>
       </c>
-      <c r="AE102">
+      <c r="AE102" s="2">
         <v>0.30430900999999999</v>
       </c>
-      <c r="AF102">
+      <c r="AF102" s="2">
         <v>0.30430900999999999</v>
       </c>
-      <c r="AG102">
+      <c r="AG102" s="2">
         <v>0.30430900999999999</v>
       </c>
-      <c r="AH102">
+      <c r="AH102" s="2">
         <v>0.30430900999999999</v>
       </c>
     </row>
@@ -10157,52 +10179,52 @@
         <v>2.8136800000000002</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2008</v>
       </c>
-      <c r="T103">
+      <c r="T103" s="2">
         <v>2.6115900000000001</v>
       </c>
-      <c r="U103">
+      <c r="U103" s="2">
         <v>0.44502449999999999</v>
       </c>
-      <c r="V103">
+      <c r="V103" s="2">
         <v>0.35614109999999999</v>
       </c>
-      <c r="W103">
+      <c r="W103" s="2">
         <v>0.32401521</v>
       </c>
-      <c r="X103">
+      <c r="X103" s="2">
         <v>0.30597067999999999</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="2">
         <v>0.30703918000000002</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="2">
         <v>0.30601852000000002</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" s="2">
         <v>0.30557888999999999</v>
       </c>
-      <c r="AB103">
+      <c r="AB103" s="2">
         <v>0.30827600999999999</v>
       </c>
-      <c r="AC103">
+      <c r="AC103" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD103">
+      <c r="AD103" s="2">
         <v>0.30217769500000002</v>
       </c>
-      <c r="AE103">
+      <c r="AE103" s="2">
         <v>0.30376539000000002</v>
       </c>
-      <c r="AF103">
+      <c r="AF103" s="2">
         <v>0.30376539000000002</v>
       </c>
-      <c r="AG103">
+      <c r="AG103" s="2">
         <v>0.30376539000000002</v>
       </c>
-      <c r="AH103">
+      <c r="AH103" s="2">
         <v>0.30376539000000002</v>
       </c>
     </row>
@@ -10211,52 +10233,52 @@
         <v>2.6115900000000001</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2009</v>
       </c>
-      <c r="T104">
+      <c r="T104" s="2">
         <v>2.83074</v>
       </c>
-      <c r="U104">
+      <c r="U104" s="2">
         <v>0.45543329999999999</v>
       </c>
-      <c r="V104">
+      <c r="V104" s="2">
         <v>0.35692760000000001</v>
       </c>
-      <c r="W104">
+      <c r="W104" s="2">
         <v>0.32450843000000001</v>
       </c>
-      <c r="X104">
+      <c r="X104" s="2">
         <v>0.30607243000000001</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="2">
         <v>0.30692573000000001</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="2">
         <v>0.30604906999999998</v>
       </c>
-      <c r="AA104">
+      <c r="AA104" s="2">
         <v>0.30530865000000001</v>
       </c>
-      <c r="AB104">
+      <c r="AB104" s="2">
         <v>0.30822406000000002</v>
       </c>
-      <c r="AC104">
+      <c r="AC104" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD104">
+      <c r="AD104" s="2">
         <v>0.30164797700000001</v>
       </c>
-      <c r="AE104">
+      <c r="AE104" s="2">
         <v>0.30377658000000002</v>
       </c>
-      <c r="AF104">
+      <c r="AF104" s="2">
         <v>0.30377658000000002</v>
       </c>
-      <c r="AG104">
+      <c r="AG104" s="2">
         <v>0.30377658000000002</v>
       </c>
-      <c r="AH104">
+      <c r="AH104" s="2">
         <v>0.30377658000000002</v>
       </c>
     </row>
@@ -10265,52 +10287,52 @@
         <v>2.83074</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2010</v>
       </c>
-      <c r="T105">
+      <c r="T105" s="2">
         <v>2.9577300000000002</v>
       </c>
-      <c r="U105">
+      <c r="U105" s="2">
         <v>0.45621400000000001</v>
       </c>
-      <c r="V105">
+      <c r="V105" s="2">
         <v>0.35707870000000003</v>
       </c>
-      <c r="W105">
+      <c r="W105" s="2">
         <v>0.32521699999999998</v>
       </c>
-      <c r="X105">
+      <c r="X105" s="2">
         <v>0.30639187000000001</v>
       </c>
-      <c r="Y105">
+      <c r="Y105" s="2">
         <v>0.30721546999999999</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="2">
         <v>0.30611032999999999</v>
       </c>
-      <c r="AA105">
+      <c r="AA105" s="2">
         <v>0.30550284999999999</v>
       </c>
-      <c r="AB105">
+      <c r="AB105" s="2">
         <v>0.30852109</v>
       </c>
-      <c r="AC105">
+      <c r="AC105" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD105">
+      <c r="AD105" s="2">
         <v>0.30164560699999998</v>
       </c>
-      <c r="AE105">
+      <c r="AE105" s="2">
         <v>0.30373749</v>
       </c>
-      <c r="AF105">
+      <c r="AF105" s="2">
         <v>0.30373749</v>
       </c>
-      <c r="AG105">
+      <c r="AG105" s="2">
         <v>0.30373749</v>
       </c>
-      <c r="AH105">
+      <c r="AH105" s="2">
         <v>0.30373749</v>
       </c>
     </row>
@@ -10319,52 +10341,52 @@
         <v>2.9577300000000002</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2011</v>
       </c>
-      <c r="T106">
+      <c r="T106" s="2">
         <v>2.9197199999999999</v>
       </c>
-      <c r="U106">
+      <c r="U106" s="2">
         <v>0.47020070000000003</v>
       </c>
-      <c r="V106">
+      <c r="V106" s="2">
         <v>0.3614964</v>
       </c>
-      <c r="W106">
+      <c r="W106" s="2">
         <v>0.32546009999999997</v>
       </c>
-      <c r="X106">
+      <c r="X106" s="2">
         <v>0.30640845</v>
       </c>
-      <c r="Y106">
+      <c r="Y106" s="2">
         <v>0.30760320000000002</v>
       </c>
-      <c r="Z106">
+      <c r="Z106" s="2">
         <v>0.30614354999999999</v>
       </c>
-      <c r="AA106">
+      <c r="AA106" s="2">
         <v>0.30539891000000002</v>
       </c>
-      <c r="AB106">
+      <c r="AB106" s="2">
         <v>0.30842755999999999</v>
       </c>
-      <c r="AC106">
+      <c r="AC106" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD106">
+      <c r="AD106" s="2">
         <v>0.301406542</v>
       </c>
-      <c r="AE106">
+      <c r="AE106" s="2">
         <v>0.30437743</v>
       </c>
-      <c r="AF106">
+      <c r="AF106" s="2">
         <v>0.30437743</v>
       </c>
-      <c r="AG106">
+      <c r="AG106" s="2">
         <v>0.30437743</v>
       </c>
-      <c r="AH106">
+      <c r="AH106" s="2">
         <v>0.30437743</v>
       </c>
     </row>
@@ -10373,52 +10395,52 @@
         <v>2.9197199999999999</v>
       </c>
       <c r="S107" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2012</v>
       </c>
-      <c r="T107">
+      <c r="T107" s="2">
         <v>2.7370800000000002</v>
       </c>
-      <c r="U107">
+      <c r="U107" s="2">
         <v>0.45272390000000001</v>
       </c>
-      <c r="V107">
+      <c r="V107" s="2">
         <v>0.35702889999999998</v>
       </c>
-      <c r="W107">
+      <c r="W107" s="2">
         <v>0.32443073</v>
       </c>
-      <c r="X107">
+      <c r="X107" s="2">
         <v>0.30597077</v>
       </c>
-      <c r="Y107">
+      <c r="Y107" s="2">
         <v>0.30705149999999998</v>
       </c>
-      <c r="Z107">
+      <c r="Z107" s="2">
         <v>0.30605441</v>
       </c>
-      <c r="AA107">
+      <c r="AA107" s="2">
         <v>0.30504479000000001</v>
       </c>
-      <c r="AB107">
+      <c r="AB107" s="2">
         <v>0.30853553</v>
       </c>
-      <c r="AC107">
+      <c r="AC107" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD107">
+      <c r="AD107" s="2">
         <v>0.30139497599999998</v>
       </c>
-      <c r="AE107">
+      <c r="AE107" s="2">
         <v>0.30410408999999999</v>
       </c>
-      <c r="AF107">
+      <c r="AF107" s="2">
         <v>0.30410408999999999</v>
       </c>
-      <c r="AG107">
+      <c r="AG107" s="2">
         <v>0.30410408999999999</v>
       </c>
-      <c r="AH107">
+      <c r="AH107" s="2">
         <v>0.30410408999999999</v>
       </c>
     </row>
@@ -10427,52 +10449,52 @@
         <v>2.7370800000000002</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2013</v>
       </c>
-      <c r="T108">
+      <c r="T108" s="2">
         <v>3.0095499999999999</v>
       </c>
-      <c r="U108">
+      <c r="U108" s="2">
         <v>0.45507399999999998</v>
       </c>
-      <c r="V108">
+      <c r="V108" s="2">
         <v>0.35894090000000001</v>
       </c>
-      <c r="W108">
+      <c r="W108" s="2">
         <v>0.32498529999999998</v>
       </c>
-      <c r="X108">
+      <c r="X108" s="2">
         <v>0.30635076</v>
       </c>
-      <c r="Y108">
+      <c r="Y108" s="2">
         <v>0.30724876000000001</v>
       </c>
-      <c r="Z108">
+      <c r="Z108" s="2">
         <v>0.30646147000000001</v>
       </c>
-      <c r="AA108">
+      <c r="AA108" s="2">
         <v>0.30554998999999999</v>
       </c>
-      <c r="AB108">
+      <c r="AB108" s="2">
         <v>0.30891289</v>
       </c>
-      <c r="AC108">
+      <c r="AC108" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD108">
+      <c r="AD108" s="2">
         <v>0.30130321799999998</v>
       </c>
-      <c r="AE108">
+      <c r="AE108" s="2">
         <v>0.30438447000000002</v>
       </c>
-      <c r="AF108">
+      <c r="AF108" s="2">
         <v>0.30438447000000002</v>
       </c>
-      <c r="AG108">
+      <c r="AG108" s="2">
         <v>0.30438447000000002</v>
       </c>
-      <c r="AH108">
+      <c r="AH108" s="2">
         <v>0.30438447000000002</v>
       </c>
     </row>
@@ -10481,52 +10503,52 @@
         <v>3.0095499999999999</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2014</v>
       </c>
-      <c r="T109">
+      <c r="T109" s="2">
         <v>3.4243399999999999</v>
       </c>
-      <c r="U109">
+      <c r="U109" s="2">
         <v>0.47473359999999998</v>
       </c>
-      <c r="V109">
+      <c r="V109" s="2">
         <v>0.36326920000000001</v>
       </c>
-      <c r="W109">
+      <c r="W109" s="2">
         <v>0.32705810000000002</v>
       </c>
-      <c r="X109">
+      <c r="X109" s="2">
         <v>0.30641977999999997</v>
       </c>
-      <c r="Y109">
+      <c r="Y109" s="2">
         <v>0.30753268</v>
       </c>
-      <c r="Z109">
+      <c r="Z109" s="2">
         <v>0.30700321000000003</v>
       </c>
-      <c r="AA109">
+      <c r="AA109" s="2">
         <v>0.30546056999999999</v>
       </c>
-      <c r="AB109">
+      <c r="AB109" s="2">
         <v>0.30987990999999998</v>
       </c>
-      <c r="AC109">
+      <c r="AC109" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD109">
+      <c r="AD109" s="2">
         <v>0.30144261999999999</v>
       </c>
-      <c r="AE109">
+      <c r="AE109" s="2">
         <v>0.30470852999999998</v>
       </c>
-      <c r="AF109">
+      <c r="AF109" s="2">
         <v>0.30470852999999998</v>
       </c>
-      <c r="AG109">
+      <c r="AG109" s="2">
         <v>0.30470852999999998</v>
       </c>
-      <c r="AH109">
+      <c r="AH109" s="2">
         <v>0.30470852999999998</v>
       </c>
     </row>
@@ -10535,52 +10557,52 @@
         <v>3.4243399999999999</v>
       </c>
       <c r="S110" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2015</v>
       </c>
-      <c r="T110">
+      <c r="T110" s="2">
         <v>3.72106</v>
       </c>
-      <c r="U110">
+      <c r="U110" s="2">
         <v>0.51606200000000002</v>
       </c>
-      <c r="V110">
+      <c r="V110" s="2">
         <v>0.37780049999999998</v>
       </c>
-      <c r="W110">
+      <c r="W110" s="2">
         <v>0.33399450000000003</v>
       </c>
-      <c r="X110">
+      <c r="X110" s="2">
         <v>0.30831343</v>
       </c>
-      <c r="Y110">
+      <c r="Y110" s="2">
         <v>0.3093592</v>
       </c>
-      <c r="Z110">
+      <c r="Z110" s="2">
         <v>0.30844431999999999</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" s="2">
         <v>0.30712087999999998</v>
       </c>
-      <c r="AB110">
+      <c r="AB110" s="2">
         <v>0.31179405999999998</v>
       </c>
-      <c r="AC110">
+      <c r="AC110" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD110">
+      <c r="AD110" s="2">
         <v>0.30169090799999998</v>
       </c>
-      <c r="AE110">
+      <c r="AE110" s="2">
         <v>0.30512888999999999</v>
       </c>
-      <c r="AF110">
+      <c r="AF110" s="2">
         <v>0.30512888999999999</v>
       </c>
-      <c r="AG110">
+      <c r="AG110" s="2">
         <v>0.30512888999999999</v>
       </c>
-      <c r="AH110">
+      <c r="AH110" s="2">
         <v>0.30512888999999999</v>
       </c>
     </row>
@@ -10589,52 +10611,52 @@
         <v>3.72106</v>
       </c>
       <c r="S111" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2016</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="2">
         <v>3.21496</v>
       </c>
-      <c r="U111">
+      <c r="U111" s="2">
         <v>0.506471</v>
       </c>
-      <c r="V111">
+      <c r="V111" s="2">
         <v>0.38153589999999998</v>
       </c>
-      <c r="W111">
+      <c r="W111" s="2">
         <v>0.33229510000000001</v>
       </c>
-      <c r="X111">
+      <c r="X111" s="2">
         <v>0.30837903</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="2">
         <v>0.30958457</v>
       </c>
-      <c r="Z111">
+      <c r="Z111" s="2">
         <v>0.30836581000000002</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" s="2">
         <v>0.3069172</v>
       </c>
-      <c r="AB111">
+      <c r="AB111" s="2">
         <v>0.31104451999999999</v>
       </c>
-      <c r="AC111">
+      <c r="AC111" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD111">
+      <c r="AD111" s="2">
         <v>0.301693304</v>
       </c>
-      <c r="AE111">
+      <c r="AE111" s="2">
         <v>0.30593619999999999</v>
       </c>
-      <c r="AF111">
+      <c r="AF111" s="2">
         <v>0.30593619999999999</v>
       </c>
-      <c r="AG111">
+      <c r="AG111" s="2">
         <v>0.30593619999999999</v>
       </c>
-      <c r="AH111">
+      <c r="AH111" s="2">
         <v>0.30593619999999999</v>
       </c>
     </row>
@@ -10643,52 +10665,52 @@
         <v>3.21496</v>
       </c>
       <c r="S112" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2017</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="2">
         <v>3.1922999999999999</v>
       </c>
-      <c r="U112">
+      <c r="U112" s="2">
         <v>0.50853599999999999</v>
       </c>
-      <c r="V112">
+      <c r="V112" s="2">
         <v>0.38550869999999998</v>
       </c>
-      <c r="W112">
+      <c r="W112" s="2">
         <v>0.33538430000000002</v>
       </c>
-      <c r="X112">
+      <c r="X112" s="2">
         <v>0.30842652999999998</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="2">
         <v>0.30990488999999999</v>
       </c>
-      <c r="Z112">
+      <c r="Z112" s="2">
         <v>0.30947788999999998</v>
       </c>
-      <c r="AA112">
+      <c r="AA112" s="2">
         <v>0.30785570000000001</v>
       </c>
-      <c r="AB112">
+      <c r="AB112" s="2">
         <v>0.31323358000000001</v>
       </c>
-      <c r="AC112">
+      <c r="AC112" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD112">
+      <c r="AD112" s="2">
         <v>0.30239842</v>
       </c>
-      <c r="AE112">
+      <c r="AE112" s="2">
         <v>0.30647046</v>
       </c>
-      <c r="AF112">
+      <c r="AF112" s="2">
         <v>0.30647046</v>
       </c>
-      <c r="AG112">
+      <c r="AG112" s="2">
         <v>0.30647046</v>
       </c>
-      <c r="AH112">
+      <c r="AH112" s="2">
         <v>0.30647046</v>
       </c>
     </row>
@@ -10700,49 +10722,49 @@
         <f>S114-1</f>
         <v>2018</v>
       </c>
-      <c r="T113">
+      <c r="T113" s="2">
         <v>2.97953</v>
       </c>
-      <c r="U113">
+      <c r="U113" s="2">
         <v>0.47783599999999998</v>
       </c>
-      <c r="V113">
+      <c r="V113" s="2">
         <v>0.3737297</v>
       </c>
-      <c r="W113">
+      <c r="W113" s="2">
         <v>0.33149030000000002</v>
       </c>
-      <c r="X113">
+      <c r="X113" s="2">
         <v>0.30738051999999999</v>
       </c>
-      <c r="Y113">
+      <c r="Y113" s="2">
         <v>0.30859471999999999</v>
       </c>
-      <c r="Z113">
+      <c r="Z113" s="2">
         <v>0.30863963</v>
       </c>
-      <c r="AA113">
+      <c r="AA113" s="2">
         <v>0.30660093999999999</v>
       </c>
-      <c r="AB113">
+      <c r="AB113" s="2">
         <v>0.31189449000000002</v>
       </c>
-      <c r="AC113">
+      <c r="AC113" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD113">
+      <c r="AD113" s="2">
         <v>0.30177702499999998</v>
       </c>
-      <c r="AE113">
+      <c r="AE113" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AF113">
+      <c r="AF113" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AG113">
+      <c r="AG113" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AH113">
+      <c r="AH113" s="2">
         <v>0.30524731999999999</v>
       </c>
     </row>
@@ -10753,49 +10775,49 @@
       <c r="S114" s="1">
         <v>2019</v>
       </c>
-      <c r="T114">
+      <c r="T114" s="2">
         <v>2.97953</v>
       </c>
-      <c r="U114">
+      <c r="U114" s="2">
         <v>0.47783599999999998</v>
       </c>
-      <c r="V114">
+      <c r="V114" s="2">
         <v>0.3737297</v>
       </c>
-      <c r="W114">
+      <c r="W114" s="2">
         <v>0.33149030000000002</v>
       </c>
-      <c r="X114">
+      <c r="X114" s="2">
         <v>0.30738051999999999</v>
       </c>
-      <c r="Y114">
+      <c r="Y114" s="2">
         <v>0.30859471999999999</v>
       </c>
-      <c r="Z114">
+      <c r="Z114" s="2">
         <v>0.30863963</v>
       </c>
-      <c r="AA114">
+      <c r="AA114" s="2">
         <v>0.30660093999999999</v>
       </c>
-      <c r="AB114">
+      <c r="AB114" s="2">
         <v>0.31189449000000002</v>
       </c>
-      <c r="AC114">
+      <c r="AC114" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD114">
+      <c r="AD114" s="2">
         <v>0.30177702499999998</v>
       </c>
-      <c r="AE114">
+      <c r="AE114" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AF114">
+      <c r="AF114" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AG114">
+      <c r="AG114" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AH114">
+      <c r="AH114" s="2">
         <v>0.30524731999999999</v>
       </c>
     </row>
@@ -10803,49 +10825,49 @@
       <c r="B115">
         <v>3.1922999999999999</v>
       </c>
-      <c r="T115">
+      <c r="T115" s="2">
         <v>2.97953</v>
       </c>
-      <c r="U115">
+      <c r="U115" s="2">
         <v>0.47783599999999998</v>
       </c>
-      <c r="V115">
+      <c r="V115" s="2">
         <v>0.3737297</v>
       </c>
-      <c r="W115">
+      <c r="W115" s="2">
         <v>0.33149030000000002</v>
       </c>
-      <c r="X115">
+      <c r="X115" s="2">
         <v>0.30738051999999999</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="2">
         <v>0.30859471999999999</v>
       </c>
-      <c r="Z115">
+      <c r="Z115" s="2">
         <v>0.30863963</v>
       </c>
-      <c r="AA115">
+      <c r="AA115" s="2">
         <v>0.30660093999999999</v>
       </c>
-      <c r="AB115">
+      <c r="AB115" s="2">
         <v>0.31189449000000002</v>
       </c>
-      <c r="AC115">
+      <c r="AC115" s="2">
         <v>0.30009999999999998</v>
       </c>
-      <c r="AD115">
+      <c r="AD115" s="2">
         <v>0.30177702499999998</v>
       </c>
-      <c r="AE115">
+      <c r="AE115" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AF115">
+      <c r="AF115" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AG115">
+      <c r="AG115" s="2">
         <v>0.30524731999999999</v>
       </c>
-      <c r="AH115">
+      <c r="AH115" s="2">
         <v>0.30524731999999999</v>
       </c>
     </row>
@@ -12819,16 +12841,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC73:AC115">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD73:AD115">
     <cfRule type="colorScale" priority="85">
       <colorScale>
@@ -12849,138 +12861,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T59:T72">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U59:U72">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V59:V72">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W59:W72">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X59:X72">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y59:Y72">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z59:Z72">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA59:AA72">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB59:AB72">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC59:AC72">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD59:AD72">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE59:AE72">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AF73:AF115">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF59:AF72">
-    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12999,28 +12881,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG59:AG72">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH73:AH115">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH59:AH72">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
